--- a/data/pca/factorExposure/factorExposure_2011-07-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02500053375620681</v>
+        <v>0.01897587799478703</v>
       </c>
       <c r="C2">
-        <v>-0.004832616549924849</v>
+        <v>0.001190875941185531</v>
       </c>
       <c r="D2">
-        <v>0.05784929561437168</v>
+        <v>-0.002572331690138866</v>
       </c>
       <c r="E2">
-        <v>-0.02074172425854561</v>
+        <v>0.03699796193767724</v>
       </c>
       <c r="F2">
-        <v>-0.01468131499539005</v>
+        <v>-0.005559195188237589</v>
       </c>
       <c r="G2">
-        <v>0.04113468931240982</v>
+        <v>-0.02236702899811473</v>
       </c>
       <c r="H2">
-        <v>0.03040314452131504</v>
+        <v>-0.02616097656767629</v>
       </c>
       <c r="I2">
-        <v>0.0465215574902567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.008582824238937135</v>
+      </c>
+      <c r="J2">
+        <v>-0.005958240462909653</v>
+      </c>
+      <c r="K2">
+        <v>-0.0933640151944858</v>
+      </c>
+      <c r="L2">
+        <v>-0.0740883455863264</v>
+      </c>
+      <c r="M2">
+        <v>-0.0717418851796186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.06701242530033796</v>
+        <v>0.1051787174115953</v>
       </c>
       <c r="C4">
-        <v>0.05724641413280647</v>
+        <v>-0.0765374501067408</v>
       </c>
       <c r="D4">
-        <v>0.03816895667131639</v>
+        <v>-0.01795963106981094</v>
       </c>
       <c r="E4">
-        <v>-0.04170598908016453</v>
+        <v>0.04782334558191728</v>
       </c>
       <c r="F4">
-        <v>0.03832497993583243</v>
+        <v>-0.09796071213881287</v>
       </c>
       <c r="G4">
-        <v>0.003205921471290953</v>
+        <v>0.002549371821913918</v>
       </c>
       <c r="H4">
-        <v>-0.01377591728241854</v>
+        <v>0.08358433149282588</v>
       </c>
       <c r="I4">
-        <v>0.001299566777833979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.03816801608421822</v>
+      </c>
+      <c r="J4">
+        <v>0.05125501656780852</v>
+      </c>
+      <c r="K4">
+        <v>0.05745459813457284</v>
+      </c>
+      <c r="L4">
+        <v>-0.02554220596604416</v>
+      </c>
+      <c r="M4">
+        <v>-0.02518534225943553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1270009181299787</v>
+        <v>0.1289307156992127</v>
       </c>
       <c r="C6">
-        <v>0.03241328605791511</v>
+        <v>-0.04873119357261112</v>
       </c>
       <c r="D6">
-        <v>0.0726669625671226</v>
+        <v>-0.001820787948809202</v>
       </c>
       <c r="E6">
-        <v>-0.09716168741520609</v>
+        <v>0.03127453425992035</v>
       </c>
       <c r="F6">
-        <v>0.03837930888327996</v>
+        <v>-0.0343584138700344</v>
       </c>
       <c r="G6">
-        <v>-0.1080455332658374</v>
+        <v>0.1799856603070435</v>
       </c>
       <c r="H6">
-        <v>0.1033435534896325</v>
+        <v>0.0492893336858852</v>
       </c>
       <c r="I6">
-        <v>-0.2723736078715945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.0493010617135486</v>
+      </c>
+      <c r="J6">
+        <v>0.4313187551295407</v>
+      </c>
+      <c r="K6">
+        <v>-0.0329078059617435</v>
+      </c>
+      <c r="L6">
+        <v>0.05609105807189822</v>
+      </c>
+      <c r="M6">
+        <v>0.09279027036804277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06523797438192346</v>
+        <v>0.07026606102758411</v>
       </c>
       <c r="C7">
-        <v>0.05092758686510072</v>
+        <v>-0.0752512696999766</v>
       </c>
       <c r="D7">
-        <v>0.05798109718851989</v>
+        <v>-0.002141705638152209</v>
       </c>
       <c r="E7">
-        <v>-0.02945491524909187</v>
+        <v>0.04470993805068283</v>
       </c>
       <c r="F7">
-        <v>0.0265632774914345</v>
+        <v>-0.01766880051251804</v>
       </c>
       <c r="G7">
-        <v>-0.03855612646260398</v>
+        <v>-0.004276220405609679</v>
       </c>
       <c r="H7">
-        <v>0.002622848109635055</v>
+        <v>0.06176515028138765</v>
       </c>
       <c r="I7">
-        <v>0.04888369691270983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.02138820224394681</v>
+      </c>
+      <c r="J7">
+        <v>-0.04739267805036178</v>
+      </c>
+      <c r="K7">
+        <v>0.07036670935810417</v>
+      </c>
+      <c r="L7">
+        <v>-0.005521099638915398</v>
+      </c>
+      <c r="M7">
+        <v>-0.01200950585935109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02244262544576836</v>
+        <v>0.03532420909091529</v>
       </c>
       <c r="C8">
-        <v>0.01494233405798361</v>
+        <v>-0.00973575397036947</v>
       </c>
       <c r="D8">
-        <v>0.03559501828847687</v>
+        <v>-0.01591925351088439</v>
       </c>
       <c r="E8">
-        <v>-0.05740896575207309</v>
+        <v>0.04960944882663219</v>
       </c>
       <c r="F8">
-        <v>-0.02308604210226751</v>
+        <v>-0.09871174084832134</v>
       </c>
       <c r="G8">
-        <v>0.003003667735946772</v>
+        <v>0.001493615328000857</v>
       </c>
       <c r="H8">
-        <v>0.03883019367238436</v>
+        <v>0.06066643254599611</v>
       </c>
       <c r="I8">
-        <v>0.0377313489414655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.03491189841814507</v>
+      </c>
+      <c r="J8">
+        <v>0.0409639455811661</v>
+      </c>
+      <c r="K8">
+        <v>0.0472086903085043</v>
+      </c>
+      <c r="L8">
+        <v>-0.06155282821621764</v>
+      </c>
+      <c r="M8">
+        <v>-0.01440949586562347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.06813187360659909</v>
+        <v>0.08443955153013735</v>
       </c>
       <c r="C9">
-        <v>0.07530874475671473</v>
+        <v>-0.06863650985732685</v>
       </c>
       <c r="D9">
-        <v>0.04210520921601815</v>
+        <v>0.000347213898191949</v>
       </c>
       <c r="E9">
-        <v>-0.02644646928716702</v>
+        <v>0.03083154239301323</v>
       </c>
       <c r="F9">
-        <v>0.02302010240526376</v>
+        <v>-0.1000637140128621</v>
       </c>
       <c r="G9">
-        <v>0.009431809997579322</v>
+        <v>-0.006977361290232653</v>
       </c>
       <c r="H9">
-        <v>-0.01269022175368325</v>
+        <v>0.07977287852633029</v>
       </c>
       <c r="I9">
-        <v>0.012936647708112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.008919937512525691</v>
+      </c>
+      <c r="J9">
+        <v>0.02679864037773093</v>
+      </c>
+      <c r="K9">
+        <v>0.02967804082126151</v>
+      </c>
+      <c r="L9">
+        <v>-0.0154680332485843</v>
+      </c>
+      <c r="M9">
+        <v>0.002323339601876502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06434434190764671</v>
+        <v>0.1072719326381977</v>
       </c>
       <c r="C10">
-        <v>-0.1358285728033623</v>
+        <v>0.1702226588281531</v>
       </c>
       <c r="D10">
-        <v>0.05659295623096887</v>
+        <v>-0.00935445288217673</v>
       </c>
       <c r="E10">
-        <v>-0.03339258856391183</v>
+        <v>0.04540091196327176</v>
       </c>
       <c r="F10">
-        <v>0.002089854171133073</v>
+        <v>0.01501885908023556</v>
       </c>
       <c r="G10">
-        <v>-0.04234483145601037</v>
+        <v>0.006771529614952143</v>
       </c>
       <c r="H10">
-        <v>0.03961858121996465</v>
+        <v>5.590002065377599e-05</v>
       </c>
       <c r="I10">
-        <v>-0.007440140412913273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.0453937586651503</v>
+      </c>
+      <c r="J10">
+        <v>-0.05753651450312473</v>
+      </c>
+      <c r="K10">
+        <v>0.005918026170946643</v>
+      </c>
+      <c r="L10">
+        <v>0.02607367000258291</v>
+      </c>
+      <c r="M10">
+        <v>0.04331480296794363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06299503116512879</v>
+        <v>0.06614805762905127</v>
       </c>
       <c r="C11">
-        <v>0.09025171670505322</v>
+        <v>-0.0710107267270193</v>
       </c>
       <c r="D11">
-        <v>0.03955417353379424</v>
+        <v>0.03076615144875098</v>
       </c>
       <c r="E11">
-        <v>0.005024782415559426</v>
+        <v>0.01860159853168253</v>
       </c>
       <c r="F11">
-        <v>-0.02488038559742887</v>
+        <v>-0.1039040502278099</v>
       </c>
       <c r="G11">
-        <v>0.03151038400976839</v>
+        <v>-0.02072495965736582</v>
       </c>
       <c r="H11">
-        <v>-0.007283664704799478</v>
+        <v>0.0545292533592646</v>
       </c>
       <c r="I11">
-        <v>0.07250034712614824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.01998259023537124</v>
+      </c>
+      <c r="J11">
+        <v>-0.08136886858484052</v>
+      </c>
+      <c r="K11">
+        <v>-0.03123958447487683</v>
+      </c>
+      <c r="L11">
+        <v>-0.003956324389825774</v>
+      </c>
+      <c r="M11">
+        <v>0.0581979987469586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05739940858599672</v>
+        <v>0.06864073300260744</v>
       </c>
       <c r="C12">
-        <v>0.05545639706734404</v>
+        <v>-0.06262521695342829</v>
       </c>
       <c r="D12">
-        <v>0.01611344777294558</v>
+        <v>0.02932101251384849</v>
       </c>
       <c r="E12">
-        <v>-0.007662234369225033</v>
+        <v>0.01226170113902748</v>
       </c>
       <c r="F12">
-        <v>0.01501227961077226</v>
+        <v>-0.1132884369534568</v>
       </c>
       <c r="G12">
-        <v>-0.00945501016028759</v>
+        <v>-0.008516816639440842</v>
       </c>
       <c r="H12">
-        <v>-0.01476698108158628</v>
+        <v>0.07016431652958047</v>
       </c>
       <c r="I12">
-        <v>0.07423719272106891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.006362919410995815</v>
+      </c>
+      <c r="J12">
+        <v>-0.06870601745001885</v>
+      </c>
+      <c r="K12">
+        <v>-0.01973835033842327</v>
+      </c>
+      <c r="L12">
+        <v>-0.05615739372990794</v>
+      </c>
+      <c r="M12">
+        <v>0.09042495940477691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05283659225383068</v>
+        <v>0.04743850002321694</v>
       </c>
       <c r="C13">
-        <v>0.01615117829564667</v>
+        <v>-0.03510620688707197</v>
       </c>
       <c r="D13">
-        <v>0.008065838545016323</v>
+        <v>-0.02264028953485482</v>
       </c>
       <c r="E13">
-        <v>-0.01488160007572622</v>
+        <v>0.01394087063370783</v>
       </c>
       <c r="F13">
-        <v>-0.003707436142196868</v>
+        <v>-0.0476455580715138</v>
       </c>
       <c r="G13">
-        <v>0.04697259289345483</v>
+        <v>-0.02819138361238341</v>
       </c>
       <c r="H13">
-        <v>-0.05370674598980254</v>
+        <v>0.02908807262376008</v>
       </c>
       <c r="I13">
-        <v>-0.005954228352410992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.02347184685393279</v>
+      </c>
+      <c r="J13">
+        <v>0.01119615943525627</v>
+      </c>
+      <c r="K13">
+        <v>0.1046980741157909</v>
+      </c>
+      <c r="L13">
+        <v>-0.03877806763215173</v>
+      </c>
+      <c r="M13">
+        <v>0.007485257138825588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04174448373422573</v>
+        <v>0.04678680919035089</v>
       </c>
       <c r="C14">
-        <v>0.02256333785229589</v>
+        <v>-0.02924176658314162</v>
       </c>
       <c r="D14">
-        <v>0.01942534055071734</v>
+        <v>0.01004633021801607</v>
       </c>
       <c r="E14">
-        <v>-0.003321528028794838</v>
+        <v>0.01500537740616176</v>
       </c>
       <c r="F14">
-        <v>0.04797730467469959</v>
+        <v>-0.04809324732978604</v>
       </c>
       <c r="G14">
-        <v>-0.01190308126566676</v>
+        <v>-0.04135905905961768</v>
       </c>
       <c r="H14">
-        <v>0.04413707524652603</v>
+        <v>0.05958099987583948</v>
       </c>
       <c r="I14">
-        <v>-0.0391242491086422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.0180285366077598</v>
+      </c>
+      <c r="J14">
+        <v>0.04216672094472422</v>
+      </c>
+      <c r="K14">
+        <v>0.05652610473707381</v>
+      </c>
+      <c r="L14">
+        <v>0.005964613123485744</v>
+      </c>
+      <c r="M14">
+        <v>-0.02321109803264374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03594320927911386</v>
+        <v>0.03073113879961954</v>
       </c>
       <c r="C15">
-        <v>-0.002144985333512177</v>
+        <v>-0.01006405125178162</v>
       </c>
       <c r="D15">
-        <v>-0.005148065484956355</v>
+        <v>-0.05900508652902339</v>
       </c>
       <c r="E15">
-        <v>-0.02425551672835683</v>
+        <v>0.004404991115695857</v>
       </c>
       <c r="F15">
-        <v>0.02496367326022554</v>
+        <v>-0.002990778707849166</v>
       </c>
       <c r="G15">
-        <v>0.005196460095147576</v>
+        <v>0.01874837336291945</v>
       </c>
       <c r="H15">
-        <v>-0.01470962136107865</v>
+        <v>0.02521531911813729</v>
       </c>
       <c r="I15">
-        <v>-0.01539361718514374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.05396625258362978</v>
+      </c>
+      <c r="J15">
+        <v>0.04516529913047867</v>
+      </c>
+      <c r="K15">
+        <v>0.04555786441186625</v>
+      </c>
+      <c r="L15">
+        <v>0.01805693067650255</v>
+      </c>
+      <c r="M15">
+        <v>0.002431643619406213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.04694528923047435</v>
+        <v>0.06935801734233742</v>
       </c>
       <c r="C16">
-        <v>0.08423494473983083</v>
+        <v>-0.07766070014843088</v>
       </c>
       <c r="D16">
-        <v>0.0281979332982779</v>
+        <v>0.01986487305358826</v>
       </c>
       <c r="E16">
-        <v>-0.01785028295795316</v>
+        <v>0.02182397666975724</v>
       </c>
       <c r="F16">
-        <v>0.02567762286317467</v>
+        <v>-0.1026924102527191</v>
       </c>
       <c r="G16">
-        <v>0.02947976144929821</v>
+        <v>-0.02380152071014738</v>
       </c>
       <c r="H16">
-        <v>0.003669725423129725</v>
+        <v>0.07849795552896524</v>
       </c>
       <c r="I16">
-        <v>0.09070627210283252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.01978687827948627</v>
+      </c>
+      <c r="J16">
+        <v>-0.07330118739655452</v>
+      </c>
+      <c r="K16">
+        <v>-0.004402611349831428</v>
+      </c>
+      <c r="L16">
+        <v>-0.02446029961140169</v>
+      </c>
+      <c r="M16">
+        <v>0.03517287498630411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03861886583413532</v>
+        <v>0.04176069351028433</v>
       </c>
       <c r="C20">
-        <v>0.04273724152418572</v>
+        <v>-0.03119509575569529</v>
       </c>
       <c r="D20">
-        <v>0.02034240084957537</v>
+        <v>-0.02178992028848908</v>
       </c>
       <c r="E20">
-        <v>-0.00920907184660966</v>
+        <v>0.02057232814140554</v>
       </c>
       <c r="F20">
-        <v>0.02826030572207486</v>
+        <v>-0.04832208569339171</v>
       </c>
       <c r="G20">
-        <v>0.02770280784097068</v>
+        <v>-0.02724356786365444</v>
       </c>
       <c r="H20">
-        <v>-0.008078600237806443</v>
+        <v>0.06486072550660626</v>
       </c>
       <c r="I20">
-        <v>0.02797061945744781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.0004931883225488679</v>
+      </c>
+      <c r="J20">
+        <v>0.002762722516483252</v>
+      </c>
+      <c r="K20">
+        <v>0.04134353953251521</v>
+      </c>
+      <c r="L20">
+        <v>-0.05649447515515126</v>
+      </c>
+      <c r="M20">
+        <v>0.02138373127433629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.008557323334465575</v>
+        <v>0.02512571373691143</v>
       </c>
       <c r="C21">
-        <v>-0.001327143965795872</v>
+        <v>-0.01265802658933147</v>
       </c>
       <c r="D21">
-        <v>-0.005465212611165793</v>
+        <v>-0.01618270179219007</v>
       </c>
       <c r="E21">
-        <v>-0.09488237573421568</v>
+        <v>0.01372528478309071</v>
       </c>
       <c r="F21">
-        <v>-0.02860791218356701</v>
+        <v>-0.05561354846363301</v>
       </c>
       <c r="G21">
-        <v>-0.08061709838684315</v>
+        <v>0.09933075669022456</v>
       </c>
       <c r="H21">
-        <v>-0.03567274679904259</v>
+        <v>0.04635710430058865</v>
       </c>
       <c r="I21">
-        <v>-0.05544895287680303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.0044191417146419</v>
+      </c>
+      <c r="J21">
+        <v>0.01596451713378655</v>
+      </c>
+      <c r="K21">
+        <v>0.1013277110118971</v>
+      </c>
+      <c r="L21">
+        <v>0.06679409649689085</v>
+      </c>
+      <c r="M21">
+        <v>0.06844425132081862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.02922598188563858</v>
+        <v>0.0415652981878176</v>
       </c>
       <c r="C22">
-        <v>0.05476083711447945</v>
+        <v>-0.03317182341218433</v>
       </c>
       <c r="D22">
-        <v>-0.1046646463263605</v>
+        <v>-0.6545629440750251</v>
       </c>
       <c r="E22">
-        <v>-0.4664204243541902</v>
+        <v>0.06491147917815744</v>
       </c>
       <c r="F22">
-        <v>0.1842530531387088</v>
+        <v>0.08241246957146722</v>
       </c>
       <c r="G22">
-        <v>0.0432859460184126</v>
+        <v>-0.0240436084740327</v>
       </c>
       <c r="H22">
-        <v>-0.2839451127771705</v>
+        <v>-0.03290826418180462</v>
       </c>
       <c r="I22">
-        <v>0.04389696846910068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.1416488172551734</v>
+      </c>
+      <c r="J22">
+        <v>-0.03661139011350769</v>
+      </c>
+      <c r="K22">
+        <v>0.02430967136345265</v>
+      </c>
+      <c r="L22">
+        <v>0.04528716066130754</v>
+      </c>
+      <c r="M22">
+        <v>-0.0378166983174827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.03013934006998674</v>
+        <v>0.04226861616488826</v>
       </c>
       <c r="C23">
-        <v>0.05351264971130931</v>
+        <v>-0.03341109469862802</v>
       </c>
       <c r="D23">
-        <v>-0.1041662342092748</v>
+        <v>-0.6561909737950975</v>
       </c>
       <c r="E23">
-        <v>-0.4679218020784071</v>
+        <v>0.06600980464654378</v>
       </c>
       <c r="F23">
-        <v>0.1811802994174173</v>
+        <v>0.07771382212693488</v>
       </c>
       <c r="G23">
-        <v>0.04269062441351588</v>
+        <v>-0.02420078462723636</v>
       </c>
       <c r="H23">
-        <v>-0.280484070591765</v>
+        <v>-0.03391113985195694</v>
       </c>
       <c r="I23">
-        <v>0.04247475427499375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.1414716833931338</v>
+      </c>
+      <c r="J23">
+        <v>-0.03174222507114224</v>
+      </c>
+      <c r="K23">
+        <v>0.02003689373433739</v>
+      </c>
+      <c r="L23">
+        <v>0.04533884623229548</v>
+      </c>
+      <c r="M23">
+        <v>-0.03855409559422859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06729582046536897</v>
+        <v>0.07520984544395214</v>
       </c>
       <c r="C24">
-        <v>0.08097791158251939</v>
+        <v>-0.0754057008806267</v>
       </c>
       <c r="D24">
-        <v>0.04658012651743873</v>
+        <v>0.01760660316211322</v>
       </c>
       <c r="E24">
-        <v>-0.03040371427388847</v>
+        <v>0.02520371047639688</v>
       </c>
       <c r="F24">
-        <v>-0.01178606737528716</v>
+        <v>-0.1078959645289124</v>
       </c>
       <c r="G24">
-        <v>0.01857010244532506</v>
+        <v>-0.01239350030334212</v>
       </c>
       <c r="H24">
-        <v>0.002943381080946328</v>
+        <v>0.06307643993699565</v>
       </c>
       <c r="I24">
-        <v>0.0536868737642999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.02716143861388131</v>
+      </c>
+      <c r="J24">
+        <v>-0.05829097203701019</v>
+      </c>
+      <c r="K24">
+        <v>-0.03198939872303205</v>
+      </c>
+      <c r="L24">
+        <v>-0.01546018974213119</v>
+      </c>
+      <c r="M24">
+        <v>0.06380706953549969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.05911776767252222</v>
+        <v>0.07188506267508302</v>
       </c>
       <c r="C25">
-        <v>0.04111432064702048</v>
+        <v>-0.04882001898403316</v>
       </c>
       <c r="D25">
-        <v>0.03987632471542086</v>
+        <v>0.03075404360625277</v>
       </c>
       <c r="E25">
-        <v>-0.03263960295300253</v>
+        <v>0.02570194606481046</v>
       </c>
       <c r="F25">
-        <v>0.00744473460743341</v>
+        <v>-0.110073040807929</v>
       </c>
       <c r="G25">
-        <v>0.03179398611565922</v>
+        <v>-0.03172285154411749</v>
       </c>
       <c r="H25">
-        <v>0.03003269057498508</v>
+        <v>0.07840769197041844</v>
       </c>
       <c r="I25">
-        <v>0.03253654551027565</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.03409687565168557</v>
+      </c>
+      <c r="J25">
+        <v>-0.05485306450650295</v>
+      </c>
+      <c r="K25">
+        <v>-0.05165746393715827</v>
+      </c>
+      <c r="L25">
+        <v>-0.03054816341313745</v>
+      </c>
+      <c r="M25">
+        <v>0.05068196375425595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03604732265248441</v>
+        <v>0.03954816172609873</v>
       </c>
       <c r="C26">
-        <v>0.02070917689307404</v>
+        <v>-0.02379030313918415</v>
       </c>
       <c r="D26">
-        <v>0.04021321484105677</v>
+        <v>-0.01202595969428331</v>
       </c>
       <c r="E26">
-        <v>0.005668743696066382</v>
+        <v>0.00197866770552005</v>
       </c>
       <c r="F26">
-        <v>0.04070690381009696</v>
+        <v>-0.03658091891736478</v>
       </c>
       <c r="G26">
-        <v>0.000591879420859443</v>
+        <v>-0.009435968553862927</v>
       </c>
       <c r="H26">
-        <v>-0.02863301273561835</v>
+        <v>0.04129017582494195</v>
       </c>
       <c r="I26">
-        <v>0.01498223969066793</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>-0.04167320818675261</v>
+      </c>
+      <c r="J26">
+        <v>0.02032793903315556</v>
+      </c>
+      <c r="K26">
+        <v>0.1298865483275553</v>
+      </c>
+      <c r="L26">
+        <v>0.04397580702192926</v>
+      </c>
+      <c r="M26">
+        <v>-0.01918005212881698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.121034764980165</v>
+        <v>0.1428988920120752</v>
       </c>
       <c r="C28">
-        <v>-0.294394887319144</v>
+        <v>0.2863083664855844</v>
       </c>
       <c r="D28">
-        <v>0.02809013337329923</v>
+        <v>0.006325031532635537</v>
       </c>
       <c r="E28">
-        <v>0.005545670744489981</v>
+        <v>0.0264829924747256</v>
       </c>
       <c r="F28">
-        <v>0.02418944131128496</v>
+        <v>0.003727827469593083</v>
       </c>
       <c r="G28">
-        <v>-0.06655094592384171</v>
+        <v>0.02857144979112752</v>
       </c>
       <c r="H28">
-        <v>0.007125894665765085</v>
+        <v>0.004700068931354504</v>
       </c>
       <c r="I28">
-        <v>0.07116600501863198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>-0.01316008234478873</v>
+      </c>
+      <c r="J28">
+        <v>0.001944199853343414</v>
+      </c>
+      <c r="K28">
+        <v>0.04841414845131146</v>
+      </c>
+      <c r="L28">
+        <v>0.002024524752760072</v>
+      </c>
+      <c r="M28">
+        <v>-0.03428047077310498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04618685132877123</v>
+        <v>0.04466642525584631</v>
       </c>
       <c r="C29">
-        <v>0.01450406549830373</v>
+        <v>-0.02370244138574842</v>
       </c>
       <c r="D29">
-        <v>0.01020605733505094</v>
+        <v>0.0006605613844100649</v>
       </c>
       <c r="E29">
-        <v>-0.02903953324598599</v>
+        <v>0.01752486638125987</v>
       </c>
       <c r="F29">
-        <v>0.03486612669412974</v>
+        <v>-0.04827376590831545</v>
       </c>
       <c r="G29">
-        <v>0.01123653272331014</v>
+        <v>-0.05391939538948159</v>
       </c>
       <c r="H29">
-        <v>0.01929581790333723</v>
+        <v>0.04491620754299596</v>
       </c>
       <c r="I29">
-        <v>0.001926521041331893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>-0.0007478600515431046</v>
+      </c>
+      <c r="J29">
+        <v>0.03034323853038782</v>
+      </c>
+      <c r="K29">
+        <v>0.04063555445393261</v>
+      </c>
+      <c r="L29">
+        <v>-0.001969217438858221</v>
+      </c>
+      <c r="M29">
+        <v>-0.01723022692614755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1187233557372833</v>
+        <v>0.09882252208669051</v>
       </c>
       <c r="C30">
-        <v>0.07175654722886726</v>
+        <v>-0.06732653233024909</v>
       </c>
       <c r="D30">
-        <v>0.0754952369618682</v>
+        <v>0.001588740222819016</v>
       </c>
       <c r="E30">
-        <v>-0.04592890983041028</v>
+        <v>0.04334513770444119</v>
       </c>
       <c r="F30">
-        <v>0.0381997191303797</v>
+        <v>-0.1605449140521007</v>
       </c>
       <c r="G30">
-        <v>-0.02785134255865829</v>
+        <v>0.001500424244265482</v>
       </c>
       <c r="H30">
-        <v>0.003655094524551451</v>
+        <v>0.1398972561968998</v>
       </c>
       <c r="I30">
-        <v>0.06803415213875387</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.1882703066006268</v>
+      </c>
+      <c r="J30">
+        <v>0.01107672827829305</v>
+      </c>
+      <c r="K30">
+        <v>0.2965402924527569</v>
+      </c>
+      <c r="L30">
+        <v>-0.1471803242359053</v>
+      </c>
+      <c r="M30">
+        <v>-0.1526990505721496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.0474095550936087</v>
+        <v>0.03502180730621621</v>
       </c>
       <c r="C31">
-        <v>0.02520251975218289</v>
+        <v>-0.0447281300626906</v>
       </c>
       <c r="D31">
-        <v>0.006471133775039248</v>
+        <v>-0.006107227176233363</v>
       </c>
       <c r="E31">
-        <v>0.007514759544068496</v>
+        <v>-0.004269330846154638</v>
       </c>
       <c r="F31">
-        <v>0.03541168065977228</v>
+        <v>-0.01485630399164211</v>
       </c>
       <c r="G31">
-        <v>0.02002627639640417</v>
+        <v>-0.04759906222480102</v>
       </c>
       <c r="H31">
-        <v>-0.0350635652066876</v>
+        <v>0.03207805026448619</v>
       </c>
       <c r="I31">
-        <v>-0.01074174240239752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>-0.03269168226339565</v>
+      </c>
+      <c r="J31">
+        <v>0.008811602260988493</v>
+      </c>
+      <c r="K31">
+        <v>0.003968896688874607</v>
+      </c>
+      <c r="L31">
+        <v>-0.03524556830639836</v>
+      </c>
+      <c r="M31">
+        <v>0.0126858116958136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02441132288473412</v>
+        <v>0.04818856224350865</v>
       </c>
       <c r="C32">
-        <v>-0.001053564608473811</v>
+        <v>0.003482587285905657</v>
       </c>
       <c r="D32">
-        <v>-0.04255205847098489</v>
+        <v>-0.003293307689377826</v>
       </c>
       <c r="E32">
-        <v>-0.07554396137341397</v>
+        <v>-0.008018710801402649</v>
       </c>
       <c r="F32">
-        <v>-0.0001327476563767378</v>
+        <v>-0.08745190690310298</v>
       </c>
       <c r="G32">
-        <v>0.04635869461140694</v>
+        <v>-0.006113573835641429</v>
       </c>
       <c r="H32">
-        <v>-0.05323964220611506</v>
+        <v>0.00116065737885736</v>
       </c>
       <c r="I32">
-        <v>0.08145423937127023</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>-0.07856289398063269</v>
+      </c>
+      <c r="J32">
+        <v>-0.03504400573529452</v>
+      </c>
+      <c r="K32">
+        <v>0.0439805423763353</v>
+      </c>
+      <c r="L32">
+        <v>-0.04965944720609505</v>
+      </c>
+      <c r="M32">
+        <v>-0.1134716860309861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.09762037609615033</v>
+        <v>0.09614805097191369</v>
       </c>
       <c r="C33">
-        <v>0.06052854131666398</v>
+        <v>-0.06544606167830838</v>
       </c>
       <c r="D33">
-        <v>0.00968126889598229</v>
+        <v>0.008909282347266649</v>
       </c>
       <c r="E33">
-        <v>0.00290604309844556</v>
+        <v>-0.01791297913514044</v>
       </c>
       <c r="F33">
-        <v>0.0306577525962647</v>
+        <v>-0.06442948058712764</v>
       </c>
       <c r="G33">
-        <v>0.03572499392741113</v>
+        <v>-0.05417499480144482</v>
       </c>
       <c r="H33">
-        <v>-0.02460135600592417</v>
+        <v>0.0458110862222632</v>
       </c>
       <c r="I33">
-        <v>0.02106951450665098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.02292426205012978</v>
+      </c>
+      <c r="J33">
+        <v>0.02305916051694807</v>
+      </c>
+      <c r="K33">
+        <v>0.04874913852060638</v>
+      </c>
+      <c r="L33">
+        <v>0.01487341571365678</v>
+      </c>
+      <c r="M33">
+        <v>0.03677044088134116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.04969845555237665</v>
+        <v>0.06300867968431133</v>
       </c>
       <c r="C34">
-        <v>0.0784179350142087</v>
+        <v>-0.06358258359973981</v>
       </c>
       <c r="D34">
-        <v>0.02636998838287458</v>
+        <v>0.02794194109893626</v>
       </c>
       <c r="E34">
-        <v>-0.0353071008829314</v>
+        <v>0.01450254617763651</v>
       </c>
       <c r="F34">
-        <v>0.01072232649188676</v>
+        <v>-0.09540491058849289</v>
       </c>
       <c r="G34">
-        <v>0.01759703320287077</v>
+        <v>-0.02668225322520674</v>
       </c>
       <c r="H34">
-        <v>0.007511614410218127</v>
+        <v>0.06544891073208227</v>
       </c>
       <c r="I34">
-        <v>0.04628663277734222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.01361523390154421</v>
+      </c>
+      <c r="J34">
+        <v>-0.04482853851233583</v>
+      </c>
+      <c r="K34">
+        <v>-0.02885421065117621</v>
+      </c>
+      <c r="L34">
+        <v>-0.02378769167222919</v>
+      </c>
+      <c r="M34">
+        <v>0.06522642115903725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03726481307361168</v>
+        <v>0.02895263023076082</v>
       </c>
       <c r="C35">
-        <v>0.02471515561142846</v>
+        <v>-0.026018694015814</v>
       </c>
       <c r="D35">
-        <v>0.01134067754119059</v>
+        <v>-0.0005426506363283942</v>
       </c>
       <c r="E35">
-        <v>-0.01822391484706572</v>
+        <v>-0.001540260621493974</v>
       </c>
       <c r="F35">
-        <v>0.0283465209763381</v>
+        <v>-0.01983457095487736</v>
       </c>
       <c r="G35">
-        <v>0.02206231393239739</v>
+        <v>-0.03086729328765548</v>
       </c>
       <c r="H35">
-        <v>-0.03480563062358075</v>
+        <v>0.05462741375032992</v>
       </c>
       <c r="I35">
-        <v>0.03375635586487912</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.02445766915579766</v>
+      </c>
+      <c r="J35">
+        <v>-0.03272681764423108</v>
+      </c>
+      <c r="K35">
+        <v>0.04764700469308872</v>
+      </c>
+      <c r="L35">
+        <v>-0.02879775495165602</v>
+      </c>
+      <c r="M35">
+        <v>-0.009912504464661243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02523081236529834</v>
+        <v>0.02912107538611737</v>
       </c>
       <c r="C36">
-        <v>0.01291719175347402</v>
+        <v>-0.01821100338374333</v>
       </c>
       <c r="D36">
-        <v>0.02910491954754534</v>
+        <v>-0.01244651004410467</v>
       </c>
       <c r="E36">
-        <v>-0.02100884217031531</v>
+        <v>0.01822301004168419</v>
       </c>
       <c r="F36">
-        <v>0.02546963858038431</v>
+        <v>-0.05394371720901396</v>
       </c>
       <c r="G36">
-        <v>0.0226086369594784</v>
+        <v>-0.02134436761312154</v>
       </c>
       <c r="H36">
-        <v>-0.01280194209615347</v>
+        <v>0.05341784369074604</v>
       </c>
       <c r="I36">
-        <v>-0.01784691707317091</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>-0.0007982278488446406</v>
+      </c>
+      <c r="J36">
+        <v>0.01660825516693926</v>
+      </c>
+      <c r="K36">
+        <v>0.050973394413996</v>
+      </c>
+      <c r="L36">
+        <v>0.006377178923342496</v>
+      </c>
+      <c r="M36">
+        <v>0.03393704477330675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04028978785769233</v>
+        <v>0.03222023572719654</v>
       </c>
       <c r="C38">
-        <v>0.02974530640396297</v>
+        <v>-0.04811136514861825</v>
       </c>
       <c r="D38">
-        <v>-0.0296162413718651</v>
+        <v>-0.02525548261543745</v>
       </c>
       <c r="E38">
-        <v>-0.04327427744108193</v>
+        <v>-0.0002147429492087762</v>
       </c>
       <c r="F38">
-        <v>0.0006044529146364934</v>
+        <v>0.04259837106199641</v>
       </c>
       <c r="G38">
-        <v>0.009694656150311494</v>
+        <v>-0.03296181917383935</v>
       </c>
       <c r="H38">
-        <v>-0.04667254814286252</v>
+        <v>-0.08036147010961557</v>
       </c>
       <c r="I38">
-        <v>0.03295562032286641</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.03306443999765724</v>
+      </c>
+      <c r="J38">
+        <v>-0.006853689427618694</v>
+      </c>
+      <c r="K38">
+        <v>0.1437814186687622</v>
+      </c>
+      <c r="L38">
+        <v>0.1266925055381292</v>
+      </c>
+      <c r="M38">
+        <v>-0.04276802742073649</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09111664951675971</v>
+        <v>0.0955644010052031</v>
       </c>
       <c r="C39">
-        <v>0.1058300366757076</v>
+        <v>-0.08590196305028752</v>
       </c>
       <c r="D39">
-        <v>0.01802242342110339</v>
+        <v>0.07745348261881693</v>
       </c>
       <c r="E39">
-        <v>-0.02870549427101119</v>
+        <v>0.002217018535489172</v>
       </c>
       <c r="F39">
-        <v>-0.02602089639786776</v>
+        <v>-0.1388439575660191</v>
       </c>
       <c r="G39">
-        <v>0.01724252938986507</v>
+        <v>-0.04905825425947761</v>
       </c>
       <c r="H39">
-        <v>0.0112832371559658</v>
+        <v>0.08977974337594259</v>
       </c>
       <c r="I39">
-        <v>0.1514747741690423</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.08763439505810289</v>
+      </c>
+      <c r="J39">
+        <v>-0.1715019718291949</v>
+      </c>
+      <c r="K39">
+        <v>0.01677814237083711</v>
+      </c>
+      <c r="L39">
+        <v>-0.07214981468324902</v>
+      </c>
+      <c r="M39">
+        <v>-0.03367382654376342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.06013452330574277</v>
+        <v>0.03892399185384188</v>
       </c>
       <c r="C40">
-        <v>0.03253362992910027</v>
+        <v>-0.05569472620387501</v>
       </c>
       <c r="D40">
-        <v>-0.02945564530382729</v>
+        <v>-0.0484099987103109</v>
       </c>
       <c r="E40">
-        <v>-0.1418901227834234</v>
+        <v>-0.008949434883621342</v>
       </c>
       <c r="F40">
-        <v>0.05581315003926941</v>
+        <v>-0.1305403692961427</v>
       </c>
       <c r="G40">
-        <v>0.06418568571478096</v>
+        <v>0.03410977327332986</v>
       </c>
       <c r="H40">
-        <v>-0.007946128820481863</v>
+        <v>0.005900172824453696</v>
       </c>
       <c r="I40">
-        <v>0.1653748046525369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.02322725037082234</v>
+      </c>
+      <c r="J40">
+        <v>-0.07042044096081188</v>
+      </c>
+      <c r="K40">
+        <v>0.1351927202871267</v>
+      </c>
+      <c r="L40">
+        <v>-0.006856917514691471</v>
+      </c>
+      <c r="M40">
+        <v>-0.03759879253766305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04195845861480756</v>
+        <v>0.03511276237557093</v>
       </c>
       <c r="C41">
-        <v>0.05250590270044648</v>
+        <v>-0.03666871027096427</v>
       </c>
       <c r="D41">
-        <v>0.009538193125661454</v>
+        <v>0.01838938563592464</v>
       </c>
       <c r="E41">
-        <v>6.730032376638673e-05</v>
+        <v>-0.001616399755874858</v>
       </c>
       <c r="F41">
-        <v>0.01758805257984955</v>
+        <v>-0.01635533564536577</v>
       </c>
       <c r="G41">
-        <v>0.02178240353371514</v>
+        <v>-0.02405539054329716</v>
       </c>
       <c r="H41">
-        <v>-0.01633933454086182</v>
+        <v>-0.006239616892150108</v>
       </c>
       <c r="I41">
-        <v>0.05463887597247888</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>-0.01532132364697988</v>
+      </c>
+      <c r="J41">
+        <v>-0.01256547879289704</v>
+      </c>
+      <c r="K41">
+        <v>0.03824054395261373</v>
+      </c>
+      <c r="L41">
+        <v>-0.008881482095276819</v>
+      </c>
+      <c r="M41">
+        <v>0.01176166925968036</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05256821005534103</v>
+        <v>0.05038946034564909</v>
       </c>
       <c r="C43">
-        <v>0.04058297713866186</v>
+        <v>-0.04949902673636761</v>
       </c>
       <c r="D43">
-        <v>0.02745214947031223</v>
+        <v>-0.01224400415477825</v>
       </c>
       <c r="E43">
-        <v>-0.02110546944601591</v>
+        <v>0.01945666960291416</v>
       </c>
       <c r="F43">
-        <v>0.007579940717135595</v>
+        <v>-0.01531850482998015</v>
       </c>
       <c r="G43">
-        <v>0.002383171116837054</v>
+        <v>-0.04519613841229041</v>
       </c>
       <c r="H43">
-        <v>-0.05848238863803797</v>
+        <v>-0.00679879639884403</v>
       </c>
       <c r="I43">
-        <v>-0.000398191599040516</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-0.002217402557590891</v>
+      </c>
+      <c r="J43">
+        <v>-0.01021971476122496</v>
+      </c>
+      <c r="K43">
+        <v>0.02674744056744576</v>
+      </c>
+      <c r="L43">
+        <v>-0.008476850100338176</v>
+      </c>
+      <c r="M43">
+        <v>0.03449795896607154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05058041994069729</v>
+        <v>0.08284869385317734</v>
       </c>
       <c r="C44">
-        <v>0.02371855854006109</v>
+        <v>-0.06161729229564889</v>
       </c>
       <c r="D44">
-        <v>0.06692238602693661</v>
+        <v>-0.06457856304442555</v>
       </c>
       <c r="E44">
-        <v>-0.1310277205844678</v>
+        <v>0.09462492863069512</v>
       </c>
       <c r="F44">
-        <v>0.0006626025008035591</v>
+        <v>-0.1671121795365875</v>
       </c>
       <c r="G44">
-        <v>0.02344769933858165</v>
+        <v>-0.03220679184533522</v>
       </c>
       <c r="H44">
-        <v>0.02053431593091358</v>
+        <v>0.08231312541365575</v>
       </c>
       <c r="I44">
-        <v>0.08222356211920429</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.01458292626238522</v>
+      </c>
+      <c r="J44">
+        <v>-0.04177807371092552</v>
+      </c>
+      <c r="K44">
+        <v>0.05951845255301577</v>
+      </c>
+      <c r="L44">
+        <v>-0.02462427408321073</v>
+      </c>
+      <c r="M44">
+        <v>-0.02948986385090574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01911817716619058</v>
+        <v>0.0359931336919441</v>
       </c>
       <c r="C46">
-        <v>0.03617619082453023</v>
+        <v>-0.04000518992102306</v>
       </c>
       <c r="D46">
-        <v>0.01409890185887087</v>
+        <v>-0.0434672360425203</v>
       </c>
       <c r="E46">
-        <v>-0.04684964006074603</v>
+        <v>0.02855377333749297</v>
       </c>
       <c r="F46">
-        <v>0.01661494060540226</v>
+        <v>-0.02651194863708302</v>
       </c>
       <c r="G46">
-        <v>0.01030437725120886</v>
+        <v>-0.02129895629652712</v>
       </c>
       <c r="H46">
-        <v>0.009018833202777533</v>
+        <v>0.04547668217008866</v>
       </c>
       <c r="I46">
-        <v>0.03036041803176232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>-0.02649171496930713</v>
+      </c>
+      <c r="J46">
+        <v>0.04101928864520882</v>
+      </c>
+      <c r="K46">
+        <v>0.06256574909754942</v>
+      </c>
+      <c r="L46">
+        <v>0.03425100239756164</v>
+      </c>
+      <c r="M46">
+        <v>0.007364138219535673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.03057105900655771</v>
+        <v>0.04543387768084377</v>
       </c>
       <c r="C47">
-        <v>0.001678715265139349</v>
+        <v>-0.03046920549234529</v>
       </c>
       <c r="D47">
-        <v>-0.003846624147698139</v>
+        <v>-0.02005839190460875</v>
       </c>
       <c r="E47">
-        <v>-0.06955834916411013</v>
+        <v>0.006018182411704771</v>
       </c>
       <c r="F47">
-        <v>0.02829723240853678</v>
+        <v>-0.0312587012454433</v>
       </c>
       <c r="G47">
-        <v>0.03103303505923872</v>
+        <v>-0.03467870783212465</v>
       </c>
       <c r="H47">
-        <v>-0.00700164740510142</v>
+        <v>0.0223747800543047</v>
       </c>
       <c r="I47">
-        <v>-0.04458488204933374</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.02470454440476569</v>
+      </c>
+      <c r="J47">
+        <v>0.02471839886927672</v>
+      </c>
+      <c r="K47">
+        <v>0.02972968038593083</v>
+      </c>
+      <c r="L47">
+        <v>-0.003377917098946587</v>
+      </c>
+      <c r="M47">
+        <v>0.05301901819701164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03478478897823486</v>
+        <v>0.04235278501754531</v>
       </c>
       <c r="C48">
-        <v>0.02202951678445986</v>
+        <v>-0.0187393101049561</v>
       </c>
       <c r="D48">
-        <v>0.009016044268729597</v>
+        <v>-0.01295543695966249</v>
       </c>
       <c r="E48">
-        <v>-0.03981748001401413</v>
+        <v>-0.0006399278953541307</v>
       </c>
       <c r="F48">
-        <v>0.03794376277561242</v>
+        <v>-0.05806199019966566</v>
       </c>
       <c r="G48">
-        <v>0.02215545019634579</v>
+        <v>0.0001461227505713674</v>
       </c>
       <c r="H48">
-        <v>-0.0457587096417081</v>
+        <v>0.06590039737557343</v>
       </c>
       <c r="I48">
-        <v>0.005145878720255064</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-0.01466974660924969</v>
+      </c>
+      <c r="J48">
+        <v>-0.01395189366529232</v>
+      </c>
+      <c r="K48">
+        <v>0.03867558221436371</v>
+      </c>
+      <c r="L48">
+        <v>-0.04061825764674229</v>
+      </c>
+      <c r="M48">
+        <v>0.02669001081165193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1857055933228974</v>
+        <v>0.223792907426684</v>
       </c>
       <c r="C49">
-        <v>0.1250847420206788</v>
+        <v>-0.08531888219513852</v>
       </c>
       <c r="D49">
-        <v>0.07893877500364921</v>
+        <v>0.06778767809664571</v>
       </c>
       <c r="E49">
-        <v>0.06998494152836397</v>
+        <v>0.02146410004944317</v>
       </c>
       <c r="F49">
-        <v>-0.007450684510393644</v>
+        <v>0.2291593607088503</v>
       </c>
       <c r="G49">
-        <v>-0.1938330800901944</v>
+        <v>0.1846685168326937</v>
       </c>
       <c r="H49">
-        <v>0.06229249769430359</v>
+        <v>0.02882030282569291</v>
       </c>
       <c r="I49">
-        <v>0.0009122842500807019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1073238209170708</v>
+      </c>
+      <c r="J49">
+        <v>-0.165265338566596</v>
+      </c>
+      <c r="K49">
+        <v>-0.1174702684125126</v>
+      </c>
+      <c r="L49">
+        <v>0.1747544098665433</v>
+      </c>
+      <c r="M49">
+        <v>0.04837565517329621</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05402756163604272</v>
+        <v>0.04399878589806687</v>
       </c>
       <c r="C50">
-        <v>0.03323231815970186</v>
+        <v>-0.04317827816710115</v>
       </c>
       <c r="D50">
-        <v>0.01131945767383379</v>
+        <v>-0.0013255808046289</v>
       </c>
       <c r="E50">
-        <v>-0.01637490352535575</v>
+        <v>-0.008884066613871837</v>
       </c>
       <c r="F50">
-        <v>0.05470330255007038</v>
+        <v>-0.03959066795259258</v>
       </c>
       <c r="G50">
-        <v>0.04712503392938303</v>
+        <v>-0.05306739181420742</v>
       </c>
       <c r="H50">
-        <v>-0.00523440684071589</v>
+        <v>0.0334191970443671</v>
       </c>
       <c r="I50">
-        <v>-0.02654292273553958</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-5.62991747321524e-05</v>
+      </c>
+      <c r="J50">
+        <v>0.0469797185232274</v>
+      </c>
+      <c r="K50">
+        <v>0.02886546186890398</v>
+      </c>
+      <c r="L50">
+        <v>-0.01061335094371471</v>
+      </c>
+      <c r="M50">
+        <v>-0.04103978879132664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02430654507712636</v>
+        <v>0.03041508872878307</v>
       </c>
       <c r="C51">
-        <v>0.01237039552867665</v>
+        <v>-0.005577827921835281</v>
       </c>
       <c r="D51">
-        <v>-0.006174140647214398</v>
+        <v>0.002026466488016063</v>
       </c>
       <c r="E51">
-        <v>-0.01565105805109354</v>
+        <v>0.01858284860380705</v>
       </c>
       <c r="F51">
-        <v>-0.01774457691920714</v>
+        <v>0.01727976113066175</v>
       </c>
       <c r="G51">
-        <v>-0.01574579248212378</v>
+        <v>0.00970283498767178</v>
       </c>
       <c r="H51">
-        <v>0.02308963111749002</v>
+        <v>-0.01547530081914227</v>
       </c>
       <c r="I51">
-        <v>0.02701020459391441</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.03097640547078826</v>
+      </c>
+      <c r="J51">
+        <v>-0.05489095660846845</v>
+      </c>
+      <c r="K51">
+        <v>-0.06687751142241619</v>
+      </c>
+      <c r="L51">
+        <v>-0.02126690596173142</v>
+      </c>
+      <c r="M51">
+        <v>0.02631463173708048</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.007798337372040701</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.003081342588871372</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.015722736891388</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.000470338672708292</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.004383667034272133</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.006688650844315741</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.01042245610311677</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-0.02507129699934862</v>
+      </c>
+      <c r="J52">
+        <v>-0.007429826907233548</v>
+      </c>
+      <c r="K52">
+        <v>-0.02468382861279648</v>
+      </c>
+      <c r="L52">
+        <v>-0.009910961359897941</v>
+      </c>
+      <c r="M52">
+        <v>-0.01267038442381396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1657435362590808</v>
+        <v>0.154078754053775</v>
       </c>
       <c r="C53">
-        <v>0.02149586280309618</v>
+        <v>-0.04931735634951053</v>
       </c>
       <c r="D53">
-        <v>0.04090370855847648</v>
+        <v>0.01863595636048331</v>
       </c>
       <c r="E53">
-        <v>0.08140374627141396</v>
+        <v>-0.005247654559769584</v>
       </c>
       <c r="F53">
-        <v>-0.02130471613305063</v>
+        <v>0.07291214262898901</v>
       </c>
       <c r="G53">
-        <v>0.263434416094906</v>
+        <v>-0.2300943731976857</v>
       </c>
       <c r="H53">
-        <v>-0.01251854571028997</v>
+        <v>-0.07458053214383274</v>
       </c>
       <c r="I53">
-        <v>-0.03237417237411485</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>-0.03065246245715903</v>
+      </c>
+      <c r="J53">
+        <v>0.09060727093426865</v>
+      </c>
+      <c r="K53">
+        <v>-0.06668540664020581</v>
+      </c>
+      <c r="L53">
+        <v>0.01956768334735774</v>
+      </c>
+      <c r="M53">
+        <v>-0.1024505578142979</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05029280392520107</v>
+        <v>0.05607365883217852</v>
       </c>
       <c r="C54">
-        <v>0.03422143949832937</v>
+        <v>-0.0328107181635585</v>
       </c>
       <c r="D54">
-        <v>0.03782357421187994</v>
+        <v>-0.0188720540133672</v>
       </c>
       <c r="E54">
-        <v>-0.02523562626832006</v>
+        <v>0.01999624261478192</v>
       </c>
       <c r="F54">
-        <v>0.0200850333517984</v>
+        <v>-0.1044376790028096</v>
       </c>
       <c r="G54">
-        <v>0.005729613755629692</v>
+        <v>-0.005973060930159442</v>
       </c>
       <c r="H54">
-        <v>-0.02590237113563969</v>
+        <v>0.06629884881739774</v>
       </c>
       <c r="I54">
-        <v>0.006870543944244196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>-0.07545851219608286</v>
+      </c>
+      <c r="J54">
+        <v>0.07189677806342043</v>
+      </c>
+      <c r="K54">
+        <v>0.07253826672233817</v>
+      </c>
+      <c r="L54">
+        <v>-0.02088027614518462</v>
+      </c>
+      <c r="M54">
+        <v>0.02524090326067072</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09298342903034568</v>
+        <v>0.0864695321789654</v>
       </c>
       <c r="C55">
-        <v>0.008351288333811411</v>
+        <v>-0.03836691377361607</v>
       </c>
       <c r="D55">
-        <v>0.0353159389417372</v>
+        <v>0.02592924357173398</v>
       </c>
       <c r="E55">
-        <v>0.01835163443539656</v>
+        <v>0.009773180159114126</v>
       </c>
       <c r="F55">
-        <v>0.01200112723160752</v>
+        <v>-0.001112749928737358</v>
       </c>
       <c r="G55">
-        <v>0.2334817732000933</v>
+        <v>-0.1711424470548771</v>
       </c>
       <c r="H55">
-        <v>0.004838039605626242</v>
+        <v>-0.02938023029744084</v>
       </c>
       <c r="I55">
-        <v>-0.03263680043408176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>-0.01554527764031458</v>
+      </c>
+      <c r="J55">
+        <v>0.055534908659661</v>
+      </c>
+      <c r="K55">
+        <v>-0.04486514788838433</v>
+      </c>
+      <c r="L55">
+        <v>0.01034212941247094</v>
+      </c>
+      <c r="M55">
+        <v>-0.05639997497240599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1701119378278955</v>
+        <v>0.1471777574160358</v>
       </c>
       <c r="C56">
-        <v>0.02071898450273826</v>
+        <v>-0.06888079372034117</v>
       </c>
       <c r="D56">
-        <v>0.06661589063642034</v>
+        <v>0.03055654495711859</v>
       </c>
       <c r="E56">
-        <v>0.08159459167608972</v>
+        <v>0.011049152359895</v>
       </c>
       <c r="F56">
-        <v>-0.03112452974094991</v>
+        <v>0.041524437802253</v>
       </c>
       <c r="G56">
-        <v>0.2288381984389566</v>
+        <v>-0.2346311638193302</v>
       </c>
       <c r="H56">
-        <v>-0.04436242245600611</v>
+        <v>-0.1126395013354299</v>
       </c>
       <c r="I56">
-        <v>-0.05129687591236773</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>-0.03572905638504726</v>
+      </c>
+      <c r="J56">
+        <v>0.06652140088054014</v>
+      </c>
+      <c r="K56">
+        <v>-0.03532001063856247</v>
+      </c>
+      <c r="L56">
+        <v>0.004296104911535092</v>
+      </c>
+      <c r="M56">
+        <v>-0.0670034137299529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.04891630996087712</v>
+        <v>0.04009202919326506</v>
       </c>
       <c r="C58">
-        <v>0.0407789352062919</v>
+        <v>-0.03270811507214015</v>
       </c>
       <c r="D58">
-        <v>0.04399560263997576</v>
+        <v>-0.08294159100752174</v>
       </c>
       <c r="E58">
-        <v>-0.3094595770698167</v>
+        <v>0.03292019115630694</v>
       </c>
       <c r="F58">
-        <v>0.1652211373648885</v>
+        <v>-0.03647797756639025</v>
       </c>
       <c r="G58">
-        <v>-0.1419625963350702</v>
+        <v>0.06851234472567154</v>
       </c>
       <c r="H58">
-        <v>-0.007568923542793243</v>
+        <v>0.2285514485878224</v>
       </c>
       <c r="I58">
-        <v>-0.1122109674730141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.1497042958674393</v>
+      </c>
+      <c r="J58">
+        <v>-0.06483519464651613</v>
+      </c>
+      <c r="K58">
+        <v>-0.1006970164307332</v>
+      </c>
+      <c r="L58">
+        <v>-0.5314460542290848</v>
+      </c>
+      <c r="M58">
+        <v>0.225346024672786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.253440202483477</v>
+        <v>0.2298845776478943</v>
       </c>
       <c r="C59">
-        <v>-0.4041562647754184</v>
+        <v>0.3027450676158164</v>
       </c>
       <c r="D59">
-        <v>0.03109229081248302</v>
+        <v>0.03620763780387157</v>
       </c>
       <c r="E59">
-        <v>-0.02552568423864847</v>
+        <v>0.008603782665444978</v>
       </c>
       <c r="F59">
-        <v>-0.07939320461115959</v>
+        <v>-0.02528559823906277</v>
       </c>
       <c r="G59">
-        <v>0.0400310597075349</v>
+        <v>-0.06341900976737369</v>
       </c>
       <c r="H59">
-        <v>-0.01452220729005605</v>
+        <v>-0.08477827644287406</v>
       </c>
       <c r="I59">
-        <v>0.05920995991495239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>-0.0734750254515001</v>
+      </c>
+      <c r="J59">
+        <v>-0.04856396172048798</v>
+      </c>
+      <c r="K59">
+        <v>-0.06431805771347926</v>
+      </c>
+      <c r="L59">
+        <v>-0.01598968796293102</v>
+      </c>
+      <c r="M59">
+        <v>0.01743844015411125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2445910533435322</v>
+        <v>0.2424459302303309</v>
       </c>
       <c r="C60">
-        <v>0.080721454147493</v>
+        <v>-0.1160908437545665</v>
       </c>
       <c r="D60">
-        <v>0.0973784457536751</v>
+        <v>0.06698319833723712</v>
       </c>
       <c r="E60">
-        <v>-0.01944892504090534</v>
+        <v>0.03821516621784726</v>
       </c>
       <c r="F60">
-        <v>-0.03442645727934527</v>
+        <v>0.1099110314804906</v>
       </c>
       <c r="G60">
-        <v>-0.07221897789074462</v>
+        <v>0.06723096879009914</v>
       </c>
       <c r="H60">
-        <v>0.07786051984719529</v>
+        <v>-0.0953593908041441</v>
       </c>
       <c r="I60">
-        <v>-0.0715467435679282</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.09282994982766141</v>
+      </c>
+      <c r="J60">
+        <v>0.08490314351223661</v>
+      </c>
+      <c r="K60">
+        <v>-0.142332317304534</v>
+      </c>
+      <c r="L60">
+        <v>0.02480530341802156</v>
+      </c>
+      <c r="M60">
+        <v>-0.01277589900608887</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.07644603268749255</v>
+        <v>0.08884002287007389</v>
       </c>
       <c r="C61">
-        <v>0.05876287375164171</v>
+        <v>-0.06186421922431622</v>
       </c>
       <c r="D61">
-        <v>0.01968057422114168</v>
+        <v>0.04317598409705294</v>
       </c>
       <c r="E61">
-        <v>-0.004312844922427692</v>
+        <v>0.02062607082968397</v>
       </c>
       <c r="F61">
-        <v>0.01983948787873591</v>
+        <v>-0.1055785135658101</v>
       </c>
       <c r="G61">
-        <v>0.01719601616534288</v>
+        <v>-0.06545467932137498</v>
       </c>
       <c r="H61">
-        <v>-0.002020106724628721</v>
+        <v>0.05377079619819986</v>
       </c>
       <c r="I61">
-        <v>0.08035177231753647</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.02637346002304189</v>
+      </c>
+      <c r="J61">
+        <v>-0.07919430461901802</v>
+      </c>
+      <c r="K61">
+        <v>0.03357459547394955</v>
+      </c>
+      <c r="L61">
+        <v>-0.02695330009595032</v>
+      </c>
+      <c r="M61">
+        <v>-0.01674039905821702</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1628953160274997</v>
+        <v>0.1450443696983877</v>
       </c>
       <c r="C62">
-        <v>0.05890664025975993</v>
+        <v>-0.07837629898297592</v>
       </c>
       <c r="D62">
-        <v>0.02840395012915491</v>
+        <v>0.0313998012973551</v>
       </c>
       <c r="E62">
-        <v>0.1233649442653883</v>
+        <v>-0.0264670547189685</v>
       </c>
       <c r="F62">
-        <v>-0.04466116173773802</v>
+        <v>0.02561852491002403</v>
       </c>
       <c r="G62">
-        <v>0.2437926298137226</v>
+        <v>-0.2039446659630178</v>
       </c>
       <c r="H62">
-        <v>-0.01632124576528193</v>
+        <v>-0.06962960604409002</v>
       </c>
       <c r="I62">
-        <v>0.01897161648430174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>-0.03018523939093886</v>
+      </c>
+      <c r="J62">
+        <v>0.1156774950610402</v>
+      </c>
+      <c r="K62">
+        <v>-0.01689622756052156</v>
+      </c>
+      <c r="L62">
+        <v>0.100875189331359</v>
+      </c>
+      <c r="M62">
+        <v>-0.06914848664732913</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04400539741116397</v>
+        <v>0.04405877307383101</v>
       </c>
       <c r="C63">
-        <v>0.0381556801228174</v>
+        <v>-0.02760706180947557</v>
       </c>
       <c r="D63">
-        <v>0.02659514775250099</v>
+        <v>0.005647063434517068</v>
       </c>
       <c r="E63">
-        <v>-0.007645708856569757</v>
+        <v>-0.005988179088534554</v>
       </c>
       <c r="F63">
-        <v>0.02890359650904298</v>
+        <v>-0.05961533235182859</v>
       </c>
       <c r="G63">
-        <v>0.03374182633660464</v>
+        <v>-0.01366041901244211</v>
       </c>
       <c r="H63">
-        <v>0.02908930132349391</v>
+        <v>0.05935817053983139</v>
       </c>
       <c r="I63">
-        <v>-0.01562277284092463</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.01219082638036634</v>
+      </c>
+      <c r="J63">
+        <v>0.03489049174088667</v>
+      </c>
+      <c r="K63">
+        <v>0.01888624550904632</v>
+      </c>
+      <c r="L63">
+        <v>-0.002003345484827849</v>
+      </c>
+      <c r="M63">
+        <v>-0.004205679274484781</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1005688285078615</v>
+        <v>0.1009753494214401</v>
       </c>
       <c r="C64">
-        <v>0.03420011136104278</v>
+        <v>-0.05002987569889664</v>
       </c>
       <c r="D64">
-        <v>0.04211729066063111</v>
+        <v>-0.0001598397604790718</v>
       </c>
       <c r="E64">
-        <v>-0.03256049666550005</v>
+        <v>0.03933428378741</v>
       </c>
       <c r="F64">
-        <v>0.03257061834674814</v>
+        <v>-0.05461149174750841</v>
       </c>
       <c r="G64">
-        <v>-0.01865187702171864</v>
+        <v>0.00995019962930912</v>
       </c>
       <c r="H64">
-        <v>0.02624542603517703</v>
+        <v>0.04716060149818468</v>
       </c>
       <c r="I64">
-        <v>0.086679868478722</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.05207363582295121</v>
+      </c>
+      <c r="J64">
+        <v>-0.006554012894237619</v>
+      </c>
+      <c r="K64">
+        <v>0.04879885867426311</v>
+      </c>
+      <c r="L64">
+        <v>-0.001132946708374592</v>
+      </c>
+      <c r="M64">
+        <v>-0.06345900496525374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1267262527858851</v>
+        <v>0.1225908375088555</v>
       </c>
       <c r="C65">
-        <v>0.06113460222903764</v>
+        <v>-0.04318820414733593</v>
       </c>
       <c r="D65">
-        <v>0.06927580052582218</v>
+        <v>0.01225698827913184</v>
       </c>
       <c r="E65">
-        <v>-0.1150895406880574</v>
+        <v>0.006390523093734421</v>
       </c>
       <c r="F65">
-        <v>0.1457279270634034</v>
+        <v>-0.04151898682697019</v>
       </c>
       <c r="G65">
-        <v>-0.1278897642441774</v>
+        <v>0.2085562225436154</v>
       </c>
       <c r="H65">
-        <v>0.2596393993907037</v>
+        <v>0.1052036757017098</v>
       </c>
       <c r="I65">
-        <v>-0.6201643350805065</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.150348222453297</v>
+      </c>
+      <c r="J65">
+        <v>0.632167613002284</v>
+      </c>
+      <c r="K65">
+        <v>-0.09070782248693722</v>
+      </c>
+      <c r="L65">
+        <v>0.05900102810946263</v>
+      </c>
+      <c r="M65">
+        <v>0.1141828623126216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1503558147041478</v>
+        <v>0.1249448750330552</v>
       </c>
       <c r="C66">
-        <v>0.1566294157760943</v>
+        <v>-0.1299597376588214</v>
       </c>
       <c r="D66">
-        <v>0.04429699705567958</v>
+        <v>0.1010388832179532</v>
       </c>
       <c r="E66">
-        <v>0.01467005117614919</v>
+        <v>-0.009746505605396239</v>
       </c>
       <c r="F66">
-        <v>-0.05279437595184758</v>
+        <v>-0.1537327825898623</v>
       </c>
       <c r="G66">
-        <v>0.02759929028234136</v>
+        <v>-0.06860015517532037</v>
       </c>
       <c r="H66">
-        <v>0.03636204383142986</v>
+        <v>0.0751609986281722</v>
       </c>
       <c r="I66">
-        <v>0.3392570914716281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1002464559384698</v>
+      </c>
+      <c r="J66">
+        <v>-0.2264269907955747</v>
+      </c>
+      <c r="K66">
+        <v>0.04560920242141655</v>
+      </c>
+      <c r="L66">
+        <v>-0.03312332412448446</v>
+      </c>
+      <c r="M66">
+        <v>-0.08168407395902767</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07169280370168306</v>
+        <v>0.08057528961932525</v>
       </c>
       <c r="C67">
-        <v>0.04613789065835918</v>
+        <v>-0.06606525842180952</v>
       </c>
       <c r="D67">
-        <v>0.006461197642354055</v>
+        <v>-0.01857512320093511</v>
       </c>
       <c r="E67">
-        <v>-0.01137057630447845</v>
+        <v>0.03277980982501694</v>
       </c>
       <c r="F67">
-        <v>-0.01062024990677862</v>
+        <v>0.03170170178822985</v>
       </c>
       <c r="G67">
-        <v>-0.007124205833903585</v>
+        <v>-0.04619700305375209</v>
       </c>
       <c r="H67">
-        <v>-0.0480696571075731</v>
+        <v>-0.1155174674962248</v>
       </c>
       <c r="I67">
-        <v>0.04375743184776116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.02962956610290287</v>
+      </c>
+      <c r="J67">
+        <v>-0.02525958620358103</v>
+      </c>
+      <c r="K67">
+        <v>0.09904377154377657</v>
+      </c>
+      <c r="L67">
+        <v>0.1315873565899971</v>
+      </c>
+      <c r="M67">
+        <v>-0.02116404774090068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1087503839666462</v>
+        <v>0.1229527462461662</v>
       </c>
       <c r="C68">
-        <v>-0.2666424330435314</v>
+        <v>0.2724844596135019</v>
       </c>
       <c r="D68">
-        <v>0.0003161943893375698</v>
+        <v>0.005795502205014982</v>
       </c>
       <c r="E68">
-        <v>-0.008453709431201177</v>
+        <v>0.002378419482610348</v>
       </c>
       <c r="F68">
-        <v>0.02746671759468511</v>
+        <v>-0.01877368623381341</v>
       </c>
       <c r="G68">
-        <v>0.02971760823332607</v>
+        <v>-0.02694079632609625</v>
       </c>
       <c r="H68">
-        <v>-0.01242881141744045</v>
+        <v>0.03253652448882149</v>
       </c>
       <c r="I68">
-        <v>-0.02280255464653466</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.02354835689949502</v>
+      </c>
+      <c r="J68">
+        <v>0.05694791716498687</v>
+      </c>
+      <c r="K68">
+        <v>0.0246810955779298</v>
+      </c>
+      <c r="L68">
+        <v>-0.006756326228181942</v>
+      </c>
+      <c r="M68">
+        <v>-0.01221579042093713</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04488893568168189</v>
+        <v>0.0442294056296797</v>
       </c>
       <c r="C69">
-        <v>0.03025693148460308</v>
+        <v>-0.02309225984837221</v>
       </c>
       <c r="D69">
-        <v>0.01236559288026319</v>
+        <v>-0.01216562478781348</v>
       </c>
       <c r="E69">
-        <v>-0.01616931645339577</v>
+        <v>-0.003522453687075626</v>
       </c>
       <c r="F69">
-        <v>-0.03848785430890861</v>
+        <v>-0.01390469227266433</v>
       </c>
       <c r="G69">
-        <v>0.03885579604035593</v>
+        <v>-0.04086823351884925</v>
       </c>
       <c r="H69">
-        <v>-0.004087452451657285</v>
+        <v>-0.0247364853344894</v>
       </c>
       <c r="I69">
-        <v>-0.01779823627966395</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.0270936292799297</v>
+      </c>
+      <c r="J69">
+        <v>0.002458116538723347</v>
+      </c>
+      <c r="K69">
+        <v>0.01706811042328892</v>
+      </c>
+      <c r="L69">
+        <v>0.01416805867830178</v>
+      </c>
+      <c r="M69">
+        <v>0.06673883357867963</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.03338914555949388</v>
+        <v>0.05148047811534841</v>
       </c>
       <c r="C70">
-        <v>0.0104617071127045</v>
+        <v>-0.04026011866458685</v>
       </c>
       <c r="D70">
-        <v>-0.007306762737685682</v>
+        <v>0.02600894273381864</v>
       </c>
       <c r="E70">
-        <v>-0.01557373082026864</v>
+        <v>0.002060128373849293</v>
       </c>
       <c r="F70">
-        <v>0.004824656775410257</v>
+        <v>-0.005080976587903042</v>
       </c>
       <c r="G70">
-        <v>-0.08736405477570663</v>
+        <v>0.06242052745306761</v>
       </c>
       <c r="H70">
-        <v>-0.06186259135592691</v>
+        <v>-0.07005609406599192</v>
       </c>
       <c r="I70">
-        <v>0.02003010268039427</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>-0.1079563267695911</v>
+      </c>
+      <c r="J70">
+        <v>0.02443217340817372</v>
+      </c>
+      <c r="K70">
+        <v>0.3067520819001779</v>
+      </c>
+      <c r="L70">
+        <v>0.01309685186494739</v>
+      </c>
+      <c r="M70">
+        <v>0.1811582724915487</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.112042325516963</v>
+        <v>0.1351449789069087</v>
       </c>
       <c r="C71">
-        <v>-0.279167361267831</v>
+        <v>0.2812034901463168</v>
       </c>
       <c r="D71">
-        <v>0.02727865116675141</v>
+        <v>0.007649760631079862</v>
       </c>
       <c r="E71">
-        <v>0.003605270584693475</v>
+        <v>0.02345337625747524</v>
       </c>
       <c r="F71">
-        <v>0.01925402755332624</v>
+        <v>-0.02165417163195818</v>
       </c>
       <c r="G71">
-        <v>-0.001294627862800921</v>
+        <v>-0.02361544065699084</v>
       </c>
       <c r="H71">
-        <v>-0.01900488814276052</v>
+        <v>0.02611343025290609</v>
       </c>
       <c r="I71">
-        <v>0.005714902666071829</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.02968169077609063</v>
+      </c>
+      <c r="J71">
+        <v>0.01096456010153097</v>
+      </c>
+      <c r="K71">
+        <v>0.01728967353076403</v>
+      </c>
+      <c r="L71">
+        <v>0.01277374565268218</v>
+      </c>
+      <c r="M71">
+        <v>-0.003528535169984307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1845608589460895</v>
+        <v>0.1441804638903794</v>
       </c>
       <c r="C72">
-        <v>0.0529428601634208</v>
+        <v>-0.03622246186503606</v>
       </c>
       <c r="D72">
-        <v>-0.2168622513982373</v>
+        <v>-0.002561872875933425</v>
       </c>
       <c r="E72">
-        <v>0.02414350721544237</v>
+        <v>-0.1826455455157257</v>
       </c>
       <c r="F72">
-        <v>-0.02194465613628734</v>
+        <v>-0.05940947944769543</v>
       </c>
       <c r="G72">
-        <v>0.007570020481881152</v>
+        <v>-0.006050496464362968</v>
       </c>
       <c r="H72">
-        <v>0.12541811268356</v>
+        <v>-0.05557418200227007</v>
       </c>
       <c r="I72">
-        <v>-0.08575556144185585</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.04632304709845423</v>
+      </c>
+      <c r="J72">
+        <v>0.1455984985602102</v>
+      </c>
+      <c r="K72">
+        <v>-0.07873945725981973</v>
+      </c>
+      <c r="L72">
+        <v>0.04915054968326448</v>
+      </c>
+      <c r="M72">
+        <v>0.009999263978760815</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2668942287111666</v>
+        <v>0.2365953902036156</v>
       </c>
       <c r="C73">
-        <v>0.1825837845146878</v>
+        <v>-0.1566102363744614</v>
       </c>
       <c r="D73">
-        <v>0.1617896950315276</v>
+        <v>0.1542522955830647</v>
       </c>
       <c r="E73">
-        <v>0.05211121358561344</v>
+        <v>0.0863951880956423</v>
       </c>
       <c r="F73">
-        <v>0.09434628308476066</v>
+        <v>0.3838748151753623</v>
       </c>
       <c r="G73">
-        <v>-0.1717144949221218</v>
+        <v>0.2267134536324992</v>
       </c>
       <c r="H73">
-        <v>0.1455516606293648</v>
+        <v>-0.009620622252886778</v>
       </c>
       <c r="I73">
-        <v>-0.07831588148827706</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.4027313593698123</v>
+      </c>
+      <c r="J73">
+        <v>-0.2330868554146224</v>
+      </c>
+      <c r="K73">
+        <v>-0.24794257269593</v>
+      </c>
+      <c r="L73">
+        <v>-0.02902638778380556</v>
+      </c>
+      <c r="M73">
+        <v>-0.1019109202923823</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09031030605153355</v>
+        <v>0.08676899958237337</v>
       </c>
       <c r="C74">
-        <v>0.0282157668528277</v>
+        <v>-0.06629738354311504</v>
       </c>
       <c r="D74">
-        <v>0.02779720330980783</v>
+        <v>0.009442598169088051</v>
       </c>
       <c r="E74">
-        <v>0.0309224626763059</v>
+        <v>-0.004497691788213125</v>
       </c>
       <c r="F74">
-        <v>0.06674845092121179</v>
+        <v>0.03811443699020931</v>
       </c>
       <c r="G74">
-        <v>0.1576965302234486</v>
+        <v>-0.1502048378573987</v>
       </c>
       <c r="H74">
-        <v>0.002242498250849519</v>
+        <v>-0.007466399368670617</v>
       </c>
       <c r="I74">
-        <v>-0.03918222623753362</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.04190368110389658</v>
+      </c>
+      <c r="J74">
+        <v>0.02148350778849931</v>
+      </c>
+      <c r="K74">
+        <v>-0.03223071163599443</v>
+      </c>
+      <c r="L74">
+        <v>0.02108997345983733</v>
+      </c>
+      <c r="M74">
+        <v>-0.03196820297403023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.101803316523729</v>
+        <v>0.09185196094777988</v>
       </c>
       <c r="C75">
-        <v>0.02244420035987168</v>
+        <v>-0.05060624838832466</v>
       </c>
       <c r="D75">
-        <v>0.03196184123803585</v>
+        <v>0.00933423938737374</v>
       </c>
       <c r="E75">
-        <v>0.02991577247441429</v>
+        <v>-0.00795454799895607</v>
       </c>
       <c r="F75">
-        <v>-0.05979607498489065</v>
+        <v>0.02356489378834085</v>
       </c>
       <c r="G75">
-        <v>0.1068978005052638</v>
+        <v>-0.1203451580644622</v>
       </c>
       <c r="H75">
-        <v>-0.04947056566355143</v>
+        <v>-0.06872191129261629</v>
       </c>
       <c r="I75">
-        <v>-0.06648112114247276</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>-0.04993906843473082</v>
+      </c>
+      <c r="J75">
+        <v>0.01766458204497875</v>
+      </c>
+      <c r="K75">
+        <v>-0.03046820244032674</v>
+      </c>
+      <c r="L75">
+        <v>-0.0160686759277443</v>
+      </c>
+      <c r="M75">
+        <v>0.06059202055997029</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1310236577577595</v>
+        <v>0.09898821509671246</v>
       </c>
       <c r="C76">
-        <v>0.03810848049682821</v>
+        <v>-0.07096046466591886</v>
       </c>
       <c r="D76">
-        <v>0.03593165751690816</v>
+        <v>0.006976108479038803</v>
       </c>
       <c r="E76">
-        <v>0.02563875029001828</v>
+        <v>0.01133603122819722</v>
       </c>
       <c r="F76">
-        <v>-0.01310580265376379</v>
+        <v>0.05723124878510233</v>
       </c>
       <c r="G76">
-        <v>0.2433906550607081</v>
+        <v>-0.2196649625112993</v>
       </c>
       <c r="H76">
-        <v>-0.01941164538135131</v>
+        <v>-0.06914252611521267</v>
       </c>
       <c r="I76">
-        <v>-0.07835137994924092</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-0.01914746382970286</v>
+      </c>
+      <c r="J76">
+        <v>0.06780499481423621</v>
+      </c>
+      <c r="K76">
+        <v>-0.04273417497518177</v>
+      </c>
+      <c r="L76">
+        <v>-0.01431692517707882</v>
+      </c>
+      <c r="M76">
+        <v>-0.1318806253881454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.07835682260096559</v>
+        <v>0.07229011855340035</v>
       </c>
       <c r="C77">
-        <v>0.03524031682017845</v>
+        <v>-0.02111944050586674</v>
       </c>
       <c r="D77">
-        <v>-0.03321769594587161</v>
+        <v>0.004245063232449956</v>
       </c>
       <c r="E77">
-        <v>-0.3645782611409827</v>
+        <v>0.04860465974979142</v>
       </c>
       <c r="F77">
-        <v>-0.6599745009411139</v>
+        <v>-0.4991382811871588</v>
       </c>
       <c r="G77">
-        <v>-0.08361157479883632</v>
+        <v>0.3269002993610691</v>
       </c>
       <c r="H77">
-        <v>0.4120276402383274</v>
+        <v>-0.6448471130479891</v>
       </c>
       <c r="I77">
-        <v>0.150162504536846</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1027304424561159</v>
+      </c>
+      <c r="J77">
+        <v>-0.04191683578876966</v>
+      </c>
+      <c r="K77">
+        <v>-0.096302032564469</v>
+      </c>
+      <c r="L77">
+        <v>-0.02771107332139323</v>
+      </c>
+      <c r="M77">
+        <v>-0.2046454644216199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1221581563038691</v>
+        <v>0.1764932666311122</v>
       </c>
       <c r="C78">
-        <v>0.09082987808062989</v>
+        <v>-0.1118162040514513</v>
       </c>
       <c r="D78">
-        <v>0.01863727838416869</v>
+        <v>-0.1759524266468771</v>
       </c>
       <c r="E78">
-        <v>-0.1547186902258136</v>
+        <v>0.118273976187837</v>
       </c>
       <c r="F78">
-        <v>0.0790799290646562</v>
+        <v>-0.1166665237618434</v>
       </c>
       <c r="G78">
-        <v>-0.03348925787222214</v>
+        <v>0.1626875945363698</v>
       </c>
       <c r="H78">
-        <v>-0.05545029246239025</v>
+        <v>0.1652805010486929</v>
       </c>
       <c r="I78">
-        <v>0.0635026666892991</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>-0.6138302694766056</v>
+      </c>
+      <c r="J78">
+        <v>-0.04728056015167011</v>
+      </c>
+      <c r="K78">
+        <v>-0.4955312878397852</v>
+      </c>
+      <c r="L78">
+        <v>-0.1074323889738372</v>
+      </c>
+      <c r="M78">
+        <v>-0.08169756899356732</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1435899058333993</v>
+        <v>0.1352660232102288</v>
       </c>
       <c r="C79">
-        <v>0.05927051221300902</v>
+        <v>-0.07509974320017725</v>
       </c>
       <c r="D79">
-        <v>0.04084424229298069</v>
+        <v>0.003125043918920874</v>
       </c>
       <c r="E79">
-        <v>0.05079421588489322</v>
+        <v>0.006842644032094483</v>
       </c>
       <c r="F79">
-        <v>-0.04367908412375542</v>
+        <v>0.005809895322942451</v>
       </c>
       <c r="G79">
-        <v>0.1604510280653626</v>
+        <v>-0.1786505093589994</v>
       </c>
       <c r="H79">
-        <v>-0.05362798113510253</v>
+        <v>-0.07330238896252884</v>
       </c>
       <c r="I79">
-        <v>-0.03430555024411532</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>-0.006398123494830067</v>
+      </c>
+      <c r="J79">
+        <v>0.06507692483190547</v>
+      </c>
+      <c r="K79">
+        <v>-0.0100827508034313</v>
+      </c>
+      <c r="L79">
+        <v>0.04233671931229547</v>
+      </c>
+      <c r="M79">
+        <v>-0.008669152915869291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.01585644853030372</v>
+        <v>0.05412833540485694</v>
       </c>
       <c r="C80">
-        <v>-0.004944527780624676</v>
+        <v>-0.02113658701885239</v>
       </c>
       <c r="D80">
-        <v>-0.01444006000384562</v>
+        <v>0.06616132027845265</v>
       </c>
       <c r="E80">
-        <v>0.01128663077125416</v>
+        <v>0.004540553295191366</v>
       </c>
       <c r="F80">
-        <v>0.03847379895667526</v>
+        <v>0.007597194276420734</v>
       </c>
       <c r="G80">
-        <v>0.0114086573144154</v>
+        <v>0.02522959089146688</v>
       </c>
       <c r="H80">
-        <v>0.05375683946681671</v>
+        <v>0.1462318718533744</v>
       </c>
       <c r="I80">
-        <v>-0.04958423349656612</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-0.007075383616854274</v>
+      </c>
+      <c r="J80">
+        <v>0.005777098745746495</v>
+      </c>
+      <c r="K80">
+        <v>0.06613991021294843</v>
+      </c>
+      <c r="L80">
+        <v>0.009445442327462653</v>
+      </c>
+      <c r="M80">
+        <v>-0.005876470612946694</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.116838750086835</v>
+        <v>0.1203644599598288</v>
       </c>
       <c r="C81">
-        <v>0.04954235214559279</v>
+        <v>-0.05182123320363777</v>
       </c>
       <c r="D81">
-        <v>0.04666280971833493</v>
+        <v>0.00197585496923218</v>
       </c>
       <c r="E81">
-        <v>0.03971534458072977</v>
+        <v>0.006932147505413773</v>
       </c>
       <c r="F81">
-        <v>-0.01884152634847111</v>
+        <v>-0.005833518317742977</v>
       </c>
       <c r="G81">
-        <v>0.1038436423243141</v>
+        <v>-0.1784052180564187</v>
       </c>
       <c r="H81">
-        <v>-0.01391568749993147</v>
+        <v>-0.03602536705111006</v>
       </c>
       <c r="I81">
-        <v>-0.03272305749702194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>-0.006903324640650211</v>
+      </c>
+      <c r="J81">
+        <v>-0.005248950999845896</v>
+      </c>
+      <c r="K81">
+        <v>-0.008337423385944145</v>
+      </c>
+      <c r="L81">
+        <v>-0.01730126249569093</v>
+      </c>
+      <c r="M81">
+        <v>0.03415574926259374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1112408265302517</v>
+        <v>0.117434735064967</v>
       </c>
       <c r="C82">
-        <v>0.0367106320769315</v>
+        <v>-0.05339379260304079</v>
       </c>
       <c r="D82">
-        <v>0.06949994116698677</v>
+        <v>0.02395115867771448</v>
       </c>
       <c r="E82">
-        <v>0.0942185726020775</v>
+        <v>-0.001007628717299054</v>
       </c>
       <c r="F82">
-        <v>-0.0610591415625595</v>
+        <v>0.0406977062591808</v>
       </c>
       <c r="G82">
-        <v>0.2685203191223296</v>
+        <v>-0.2502704848956518</v>
       </c>
       <c r="H82">
-        <v>-0.06427242396269499</v>
+        <v>-0.06728769636488907</v>
       </c>
       <c r="I82">
-        <v>-0.005612754058045745</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-0.03499808588463345</v>
+      </c>
+      <c r="J82">
+        <v>-0.0042998209365363</v>
+      </c>
+      <c r="K82">
+        <v>0.03755279694696893</v>
+      </c>
+      <c r="L82">
+        <v>0.04901913370766081</v>
+      </c>
+      <c r="M82">
+        <v>-0.0109346969955603</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.04967155539761003</v>
+        <v>0.07651432043281003</v>
       </c>
       <c r="C83">
-        <v>0.03150611210106977</v>
+        <v>-0.0614947050582127</v>
       </c>
       <c r="D83">
-        <v>0.03316342531292438</v>
+        <v>0.01370139472257097</v>
       </c>
       <c r="E83">
-        <v>0.01936491141429752</v>
+        <v>0.01810997766804109</v>
       </c>
       <c r="F83">
-        <v>-0.01645603990976534</v>
+        <v>0.01317898262639336</v>
       </c>
       <c r="G83">
-        <v>-0.0936435510961711</v>
+        <v>0.01591603193137708</v>
       </c>
       <c r="H83">
-        <v>-0.05030133920814104</v>
+        <v>-0.00668170654557811</v>
       </c>
       <c r="I83">
-        <v>0.05742226779382805</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.02343449119780118</v>
+      </c>
+      <c r="J83">
+        <v>-0.02529034609932809</v>
+      </c>
+      <c r="K83">
+        <v>0.1842135001931699</v>
+      </c>
+      <c r="L83">
+        <v>0.0001532898444402702</v>
+      </c>
+      <c r="M83">
+        <v>0.04391203978671237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05531481998325211</v>
+        <v>0.04296545582272611</v>
       </c>
       <c r="C84">
-        <v>0.03061661417754413</v>
+        <v>0.0216295721176661</v>
       </c>
       <c r="D84">
-        <v>-0.01801871428415973</v>
+        <v>0.004133815580708148</v>
       </c>
       <c r="E84">
-        <v>0.02175061746201928</v>
+        <v>-0.03687119299471063</v>
       </c>
       <c r="F84">
-        <v>0.1165990283953603</v>
+        <v>-0.02013451499686945</v>
       </c>
       <c r="G84">
-        <v>0.02321462764811554</v>
+        <v>0.1270187415921808</v>
       </c>
       <c r="H84">
-        <v>-0.06207961856556679</v>
+        <v>0.2519158378253434</v>
       </c>
       <c r="I84">
-        <v>0.02699217265118478</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>-0.122827446569809</v>
+      </c>
+      <c r="J84">
+        <v>-0.1443984193717726</v>
+      </c>
+      <c r="K84">
+        <v>0.1007626974452046</v>
+      </c>
+      <c r="L84">
+        <v>0.3176956668324736</v>
+      </c>
+      <c r="M84">
+        <v>-0.373533086227924</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.07817013891114337</v>
+        <v>0.107000832520043</v>
       </c>
       <c r="C85">
-        <v>0.04195828004796842</v>
+        <v>-0.05295568870714529</v>
       </c>
       <c r="D85">
-        <v>0.06274396750532324</v>
+        <v>0.0162086338049504</v>
       </c>
       <c r="E85">
-        <v>0.02057571198351093</v>
+        <v>0.03622389024760386</v>
       </c>
       <c r="F85">
-        <v>-0.02052452181301865</v>
+        <v>0.002919572455087973</v>
       </c>
       <c r="G85">
-        <v>0.1769493346102853</v>
+        <v>-0.1840064372504638</v>
       </c>
       <c r="H85">
-        <v>-0.002692075539128095</v>
+        <v>-0.05908893790462824</v>
       </c>
       <c r="I85">
-        <v>-0.04781039672085143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>-0.01106333780609283</v>
+      </c>
+      <c r="J85">
+        <v>0.06071368035587477</v>
+      </c>
+      <c r="K85">
+        <v>-0.03709915533714697</v>
+      </c>
+      <c r="L85">
+        <v>0.04959610368324949</v>
+      </c>
+      <c r="M85">
+        <v>0.004496644996275358</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03808108072389704</v>
+        <v>0.07215151285780735</v>
       </c>
       <c r="C86">
-        <v>0.05047327384832211</v>
+        <v>-0.02469249788504818</v>
       </c>
       <c r="D86">
-        <v>0.005944356287567639</v>
+        <v>-0.008402339415274782</v>
       </c>
       <c r="E86">
-        <v>-0.04548724138873414</v>
+        <v>0.0372667725604759</v>
       </c>
       <c r="F86">
-        <v>-0.01705685093094345</v>
+        <v>-0.0779254001565438</v>
       </c>
       <c r="G86">
-        <v>-0.03579662073597094</v>
+        <v>0.1052463663219445</v>
       </c>
       <c r="H86">
-        <v>0.08433721175737056</v>
+        <v>0.1278802489521885</v>
       </c>
       <c r="I86">
-        <v>-0.087665235563937</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-0.1316128674194629</v>
+      </c>
+      <c r="J86">
+        <v>-0.1360606386261096</v>
+      </c>
+      <c r="K86">
+        <v>-0.0245293351973127</v>
+      </c>
+      <c r="L86">
+        <v>0.5550919750303174</v>
+      </c>
+      <c r="M86">
+        <v>0.1391646653778753</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09229373080870241</v>
+        <v>0.1104110462166363</v>
       </c>
       <c r="C87">
-        <v>0.06820837048487149</v>
+        <v>-0.06812892746663242</v>
       </c>
       <c r="D87">
-        <v>0.01641221490779256</v>
+        <v>-0.03633269176465862</v>
       </c>
       <c r="E87">
-        <v>-0.149268564010575</v>
+        <v>0.03117379011556384</v>
       </c>
       <c r="F87">
-        <v>-0.1130364860216099</v>
+        <v>-0.1682886135934494</v>
       </c>
       <c r="G87">
-        <v>-0.01667836989732645</v>
+        <v>0.1278089425899332</v>
       </c>
       <c r="H87">
-        <v>0.08129466040352422</v>
+        <v>-0.09172847513948872</v>
       </c>
       <c r="I87">
-        <v>0.09943917654477333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.03710588301777631</v>
+      </c>
+      <c r="J87">
+        <v>-0.024670275185222</v>
+      </c>
+      <c r="K87">
+        <v>0.09247305989492828</v>
+      </c>
+      <c r="L87">
+        <v>0.01289684962005688</v>
+      </c>
+      <c r="M87">
+        <v>-0.06669800232288645</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04607715129444001</v>
+        <v>0.05725668470798387</v>
       </c>
       <c r="C88">
-        <v>0.03849141550419533</v>
+        <v>-0.05317877855113893</v>
       </c>
       <c r="D88">
-        <v>0.01895404410227654</v>
+        <v>0.0298181132558572</v>
       </c>
       <c r="E88">
-        <v>-0.002050973778822625</v>
+        <v>0.01751117739831069</v>
       </c>
       <c r="F88">
-        <v>0.003199158383445989</v>
+        <v>-0.02578239805111358</v>
       </c>
       <c r="G88">
-        <v>-0.02209194507099469</v>
+        <v>-0.02397779748128472</v>
       </c>
       <c r="H88">
-        <v>-0.0002485398304257274</v>
+        <v>0.03412628064951467</v>
       </c>
       <c r="I88">
-        <v>0.04370524111921223</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.02752597408796486</v>
+      </c>
+      <c r="J88">
+        <v>-0.02719704153385737</v>
+      </c>
+      <c r="K88">
+        <v>0.02354149446119705</v>
+      </c>
+      <c r="L88">
+        <v>0.002678054743358028</v>
+      </c>
+      <c r="M88">
+        <v>0.02227479927621773</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1758428975300196</v>
+        <v>0.217865942069711</v>
       </c>
       <c r="C89">
-        <v>-0.3173192274010729</v>
+        <v>0.355306385999172</v>
       </c>
       <c r="D89">
-        <v>0.06594975512127883</v>
+        <v>-0.04417262578161027</v>
       </c>
       <c r="E89">
-        <v>-0.08638238786250672</v>
+        <v>0.0845218627630264</v>
       </c>
       <c r="F89">
-        <v>0.01102500816668035</v>
+        <v>-0.006932415537102052</v>
       </c>
       <c r="G89">
-        <v>-0.03196848391135608</v>
+        <v>-0.009843114310621901</v>
       </c>
       <c r="H89">
-        <v>-0.0290146252534445</v>
+        <v>0.02743831552924101</v>
       </c>
       <c r="I89">
-        <v>-0.01532585670317561</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.003461427488915419</v>
+      </c>
+      <c r="J89">
+        <v>-0.06475072699285946</v>
+      </c>
+      <c r="K89">
+        <v>-0.0007016299990862632</v>
+      </c>
+      <c r="L89">
+        <v>-0.0907128992627781</v>
+      </c>
+      <c r="M89">
+        <v>0.07069632676848168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1313116598203489</v>
+        <v>0.1488860374958896</v>
       </c>
       <c r="C90">
-        <v>-0.2715755572263628</v>
+        <v>0.2676420815898315</v>
       </c>
       <c r="D90">
-        <v>-0.001696967725133839</v>
+        <v>0.004821744689751178</v>
       </c>
       <c r="E90">
-        <v>-0.0634699315038792</v>
+        <v>0.02096796548404679</v>
       </c>
       <c r="F90">
-        <v>0.001081372142396743</v>
+        <v>-0.02949601119072357</v>
       </c>
       <c r="G90">
-        <v>-0.02344725082860641</v>
+        <v>0.01954375954737136</v>
       </c>
       <c r="H90">
-        <v>0.04065668959752496</v>
+        <v>0.02211266270081826</v>
       </c>
       <c r="I90">
-        <v>0.07526225259065034</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.05159874559244635</v>
+      </c>
+      <c r="J90">
+        <v>-0.02117535291604104</v>
+      </c>
+      <c r="K90">
+        <v>0.003187970590803805</v>
+      </c>
+      <c r="L90">
+        <v>-0.009335148612508993</v>
+      </c>
+      <c r="M90">
+        <v>-0.03987741610589598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08374228946108431</v>
+        <v>0.07564361246972695</v>
       </c>
       <c r="C91">
-        <v>0.03641708662968913</v>
+        <v>-0.05203968914769661</v>
       </c>
       <c r="D91">
-        <v>0.02341967529763812</v>
+        <v>-0.01052671967474067</v>
       </c>
       <c r="E91">
-        <v>-0.00324783694309785</v>
+        <v>0.006917029069655585</v>
       </c>
       <c r="F91">
-        <v>-0.00991694936456965</v>
+        <v>0.017573732418694</v>
       </c>
       <c r="G91">
-        <v>0.1087134090514429</v>
+        <v>-0.1014625156856099</v>
       </c>
       <c r="H91">
-        <v>-0.02857788442891745</v>
+        <v>-0.04094208759000453</v>
       </c>
       <c r="I91">
-        <v>-0.04320828881078948</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>-0.02345085225294487</v>
+      </c>
+      <c r="J91">
+        <v>0.0009743411057794275</v>
+      </c>
+      <c r="K91">
+        <v>-0.04648525365594624</v>
+      </c>
+      <c r="L91">
+        <v>-0.04070916664777371</v>
+      </c>
+      <c r="M91">
+        <v>-0.005452901842282687</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1534491700957179</v>
+        <v>0.1674827771467158</v>
       </c>
       <c r="C92">
-        <v>-0.3093747853454792</v>
+        <v>0.306455557348702</v>
       </c>
       <c r="D92">
-        <v>0.04529152206359974</v>
+        <v>-0.02941345448576667</v>
       </c>
       <c r="E92">
-        <v>-0.02385870561064725</v>
+        <v>0.04983132985775093</v>
       </c>
       <c r="F92">
-        <v>0.06977023534582008</v>
+        <v>-0.00328299009451222</v>
       </c>
       <c r="G92">
-        <v>-0.01050653953231782</v>
+        <v>-0.02898490794698562</v>
       </c>
       <c r="H92">
-        <v>-0.04113939572028739</v>
+        <v>0.03131254116348271</v>
       </c>
       <c r="I92">
-        <v>-0.0006758186818758694</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.01061062255616563</v>
+      </c>
+      <c r="J92">
+        <v>-0.02034460672946135</v>
+      </c>
+      <c r="K92">
+        <v>-0.002037344741622474</v>
+      </c>
+      <c r="L92">
+        <v>-0.01001400050442251</v>
+      </c>
+      <c r="M92">
+        <v>0.03254629077284061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1439132546120974</v>
+        <v>0.1643636260918419</v>
       </c>
       <c r="C93">
-        <v>-0.2467191615634459</v>
+        <v>0.288127271404727</v>
       </c>
       <c r="D93">
-        <v>0.01721292460853254</v>
+        <v>0.02670784806278073</v>
       </c>
       <c r="E93">
-        <v>-0.02154916840661652</v>
+        <v>0.004545264654494952</v>
       </c>
       <c r="F93">
-        <v>0.00938104642651565</v>
+        <v>-0.01048871567737383</v>
       </c>
       <c r="G93">
-        <v>-0.0517876948554295</v>
+        <v>0.0001438884362779278</v>
       </c>
       <c r="H93">
-        <v>0.005097529660728796</v>
+        <v>0.01979208724135571</v>
       </c>
       <c r="I93">
-        <v>0.02744308702893759</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.02121964170329916</v>
+      </c>
+      <c r="J93">
+        <v>-0.008732442649234123</v>
+      </c>
+      <c r="K93">
+        <v>0.04961274574413162</v>
+      </c>
+      <c r="L93">
+        <v>0.02839074733608875</v>
+      </c>
+      <c r="M93">
+        <v>-0.01019097621613112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08832566725892288</v>
+        <v>0.105970392114359</v>
       </c>
       <c r="C94">
-        <v>0.06645875578813196</v>
+        <v>-0.07673842694998095</v>
       </c>
       <c r="D94">
-        <v>0.02431278096835601</v>
+        <v>-0.01163669339995054</v>
       </c>
       <c r="E94">
-        <v>0.002734397113339276</v>
+        <v>0.02103143795129962</v>
       </c>
       <c r="F94">
-        <v>-0.02542649319821082</v>
+        <v>0.04319795212170573</v>
       </c>
       <c r="G94">
-        <v>0.1506204929209289</v>
+        <v>-0.1323368649908231</v>
       </c>
       <c r="H94">
-        <v>-0.071555487599489</v>
+        <v>-0.0317947359827977</v>
       </c>
       <c r="I94">
-        <v>-0.1041100737688155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>-0.02731816962128697</v>
+      </c>
+      <c r="J94">
+        <v>0.01493863472068908</v>
+      </c>
+      <c r="K94">
+        <v>-0.04274383132118094</v>
+      </c>
+      <c r="L94">
+        <v>-0.02369924242380288</v>
+      </c>
+      <c r="M94">
+        <v>0.05070454494693966</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.09853373280701941</v>
+        <v>0.1352728760545218</v>
       </c>
       <c r="C95">
-        <v>0.09240549692413852</v>
+        <v>-0.07344345591678034</v>
       </c>
       <c r="D95">
-        <v>0.08746671146870821</v>
+        <v>-0.007926876165948225</v>
       </c>
       <c r="E95">
-        <v>-0.02457313578338959</v>
+        <v>0.06451502756141839</v>
       </c>
       <c r="F95">
-        <v>0.04377953395472047</v>
+        <v>-0.0643111448431861</v>
       </c>
       <c r="G95">
-        <v>-0.00729519592111216</v>
+        <v>0.1615891677364785</v>
       </c>
       <c r="H95">
-        <v>0.0500595384415954</v>
+        <v>0.1480194946654804</v>
       </c>
       <c r="I95">
-        <v>0.04007532225451289</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1027065228817718</v>
+      </c>
+      <c r="J95">
+        <v>-0.023576209962949</v>
+      </c>
+      <c r="K95">
+        <v>0.05860389977440748</v>
+      </c>
+      <c r="L95">
+        <v>0.2067707809579662</v>
+      </c>
+      <c r="M95">
+        <v>0.287921503498029</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.310715245873965</v>
+        <v>0.1713149268234214</v>
       </c>
       <c r="C97">
-        <v>0.06111895944163995</v>
+        <v>-0.007752763860653458</v>
       </c>
       <c r="D97">
-        <v>-0.8691458289102211</v>
+        <v>-0.1128679075715223</v>
       </c>
       <c r="E97">
-        <v>0.1475424060428305</v>
+        <v>-0.9353141401108208</v>
       </c>
       <c r="F97">
-        <v>0.05438446205509866</v>
+        <v>-0.04515191593006272</v>
       </c>
       <c r="G97">
-        <v>-0.07425816659582195</v>
+        <v>0.06466995756729182</v>
       </c>
       <c r="H97">
-        <v>0.05265795972785108</v>
+        <v>0.04112115885419289</v>
       </c>
       <c r="I97">
-        <v>-0.005241992402170939</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.00447589360834069</v>
+      </c>
+      <c r="J97">
+        <v>-0.06585291116602426</v>
+      </c>
+      <c r="K97">
+        <v>-0.04038991759452944</v>
+      </c>
+      <c r="L97">
+        <v>-0.03535370629221263</v>
+      </c>
+      <c r="M97">
+        <v>0.02247089335523214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2585940086415504</v>
+        <v>0.2618009259613246</v>
       </c>
       <c r="C98">
-        <v>0.10099979766894</v>
+        <v>-0.1213572858710209</v>
       </c>
       <c r="D98">
-        <v>0.1668123591286272</v>
+        <v>0.01777860681833513</v>
       </c>
       <c r="E98">
-        <v>0.2990308968183535</v>
+        <v>0.0079413324584999</v>
       </c>
       <c r="F98">
-        <v>0.04349876048836013</v>
+        <v>0.4031757741998503</v>
       </c>
       <c r="G98">
-        <v>-0.5263323720914624</v>
+        <v>0.3138462849963167</v>
       </c>
       <c r="H98">
-        <v>-0.2883628810138922</v>
+        <v>-0.1542294002812167</v>
       </c>
       <c r="I98">
-        <v>0.186851209943852</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>-0.3838880546493191</v>
+      </c>
+      <c r="J98">
+        <v>0.02931958730840965</v>
+      </c>
+      <c r="K98">
+        <v>0.4297441732951665</v>
+      </c>
+      <c r="L98">
+        <v>-0.2733433564674964</v>
+      </c>
+      <c r="M98">
+        <v>-0.1179616352917778</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.05879521248186737</v>
+        <v>0.07030982944108485</v>
       </c>
       <c r="C99">
-        <v>0.04424981157051654</v>
+        <v>-0.05334871171312553</v>
       </c>
       <c r="D99">
-        <v>-0.03444135595687789</v>
+        <v>-0.02596230330631978</v>
       </c>
       <c r="E99">
-        <v>-0.01400524873145965</v>
+        <v>0.01055687916390748</v>
       </c>
       <c r="F99">
-        <v>-0.572245157952986</v>
+        <v>-0.001898241845199822</v>
       </c>
       <c r="G99">
-        <v>-0.1054766922712194</v>
+        <v>-0.0427417456263857</v>
       </c>
       <c r="H99">
-        <v>-0.6078788368375493</v>
+        <v>-0.3035657957716529</v>
       </c>
       <c r="I99">
-        <v>-0.3449489001820824</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>-0.1534557465242455</v>
+      </c>
+      <c r="J99">
+        <v>-0.1957304232908175</v>
+      </c>
+      <c r="K99">
+        <v>0.05090394645078773</v>
+      </c>
+      <c r="L99">
+        <v>0.04235865673701168</v>
+      </c>
+      <c r="M99">
+        <v>0.6341065287310055</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04613746767335612</v>
+        <v>0.044732304192235</v>
       </c>
       <c r="C101">
-        <v>0.01517241200763786</v>
+        <v>-0.02366106255884528</v>
       </c>
       <c r="D101">
-        <v>0.0114882577028223</v>
+        <v>0.001143871483625245</v>
       </c>
       <c r="E101">
-        <v>-0.0276510033714971</v>
+        <v>0.01886659843571365</v>
       </c>
       <c r="F101">
-        <v>0.03490981505364014</v>
+        <v>-0.04672772195978393</v>
       </c>
       <c r="G101">
-        <v>0.009699148938512108</v>
+        <v>-0.05439379134949601</v>
       </c>
       <c r="H101">
-        <v>0.0183043147517917</v>
+        <v>0.04445143832094188</v>
       </c>
       <c r="I101">
-        <v>0.003695026255282053</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>-0.001265810234935099</v>
+      </c>
+      <c r="J101">
+        <v>0.02781540846224288</v>
+      </c>
+      <c r="K101">
+        <v>0.03799730683064551</v>
+      </c>
+      <c r="L101">
+        <v>-0.00187486055129839</v>
+      </c>
+      <c r="M101">
+        <v>-0.01935150543702071</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
